--- a/spreadsheets/existing/GSE115469.0.xlsx
+++ b/spreadsheets/existing/GSE115469.0.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/existing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C15EC0B-CBCB-3949-88AC-D6C8289F9DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32180" windowHeight="20540" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Project" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Project - Contributors" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Project - Publications" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Project - Funders" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Donor organism" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Collection protocol" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Specimen from organism" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Dissociation protocol" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Enrichment protocol" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Cell suspension" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Library preparation protocol" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Sequencing protocol" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Sequence file" sheetId="13" r:id="rId16"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Project - Contributors" sheetId="2" r:id="rId2"/>
+    <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Project - Funders" sheetId="4" r:id="rId4"/>
+    <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
+    <sheet name="Collection protocol" sheetId="6" r:id="rId6"/>
+    <sheet name="Specimen from organism" sheetId="7" r:id="rId7"/>
+    <sheet name="Dissociation protocol" sheetId="8" r:id="rId8"/>
+    <sheet name="Enrichment protocol" sheetId="9" r:id="rId9"/>
+    <sheet name="Cell suspension" sheetId="10" r:id="rId10"/>
+    <sheet name="Library preparation protocol" sheetId="11" r:id="rId11"/>
+    <sheet name="Sequencing protocol" sheetId="12" r:id="rId12"/>
+    <sheet name="Sequence file" sheetId="13" r:id="rId13"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataSignature="AMtx7mgNQxoLPicnHn5ik4riSxQZszslvA=="/>
@@ -28,30 +37,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="K10">
+    <comment ref="Z6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAADqk0UuQ
+Parisa N    (2019-09-16 16:06:28)
++wisulliv@ucsc.edu  added disease</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
 ID#AAAADqk0U3U
 Parisa N    (2019-09-16 16:17:42)
 +wisulliv@ucsc.edu  added this</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Z6">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAADqk0UuQ
-Parisa N    (2019-09-16 16:06:28)
-+wisulliv@ucsc.edu  added disease</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgymRmSGBTjFVNivtN+CkZNSL09fA=="/>
     </ext>
   </extLst>
@@ -2848,81 +2871,83 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -2932,7 +2957,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2954,146 +2979,98 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3283,26 +3260,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="79.14"/>
-    <col customWidth="1" min="4" max="4" width="34.29"/>
-    <col customWidth="1" min="5" max="9" width="25.71"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="79.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="9" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>320</v>
       </c>
@@ -3331,7 +3308,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="68">
       <c r="A2" s="2" t="s">
         <v>339</v>
       </c>
@@ -3360,7 +3337,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="119">
       <c r="A3" s="2" t="s">
         <v>348</v>
       </c>
@@ -3389,7 +3366,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="3" t="s">
         <v>365</v>
       </c>
@@ -3418,7 +3395,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,7 +3408,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="176">
       <c r="A6" s="5" t="s">
         <v>387</v>
       </c>
@@ -4454,34 +4431,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="25.71"/>
-    <col customWidth="1" min="11" max="11" width="21.0"/>
-    <col customWidth="1" min="12" max="12" width="14.0"/>
-    <col customWidth="1" min="13" max="13" width="25.71"/>
-    <col customWidth="1" min="14" max="15" width="8.71"/>
-    <col customWidth="1" min="16" max="18" width="25.71"/>
-    <col customWidth="1" min="19" max="19" width="37.43"/>
-    <col customWidth="1" min="20" max="20" width="34.14"/>
+    <col min="1" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="37.5" customWidth="1"/>
+    <col min="20" max="20" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>468</v>
       </c>
@@ -4543,7 +4516,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" ht="120.0" customHeight="1">
+    <row r="2" spans="1:26" ht="120" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -4605,7 +4578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" ht="117.75" customHeight="1">
+    <row r="3" spans="1:26" ht="117.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4659,7 +4632,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>523</v>
       </c>
@@ -4721,7 +4694,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4745,7 +4718,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="16">
       <c r="A6" s="11" t="s">
         <v>548</v>
       </c>
@@ -4759,7 +4732,7 @@
         <v>304</v>
       </c>
       <c r="E6" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4782,10 +4755,10 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="7">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="Q6" s="7">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>554</v>
@@ -4803,7 +4776,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="16">
       <c r="A7" s="11" t="s">
         <v>557</v>
       </c>
@@ -4817,7 +4790,7 @@
         <v>304</v>
       </c>
       <c r="E7" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4840,10 +4813,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="7">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="Q7" s="7">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>554</v>
@@ -4861,7 +4834,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="16">
       <c r="A8" s="11" t="s">
         <v>562</v>
       </c>
@@ -4875,7 +4848,7 @@
         <v>304</v>
       </c>
       <c r="E8" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4898,10 +4871,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="7">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="Q8" s="7">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>554</v>
@@ -4919,7 +4892,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="16">
       <c r="A9" s="11" t="s">
         <v>567</v>
       </c>
@@ -4933,7 +4906,7 @@
         <v>304</v>
       </c>
       <c r="E9" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4956,10 +4929,10 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="7">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="Q9" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>554</v>
@@ -4977,7 +4950,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="11" t="s">
         <v>576</v>
       </c>
@@ -4991,7 +4964,7 @@
         <v>304</v>
       </c>
       <c r="E10" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5014,10 +4987,10 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="7">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="Q10" s="7">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>554</v>
@@ -6016,38 +5989,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="88.86"/>
-    <col customWidth="1" min="4" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="7" width="38.71"/>
-    <col customWidth="1" min="8" max="8" width="15.14"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
-    <col customWidth="1" min="10" max="10" width="30.71"/>
-    <col customWidth="1" min="11" max="11" width="38.71"/>
-    <col customWidth="1" min="12" max="12" width="11.43"/>
-    <col customWidth="1" min="13" max="13" width="17.86"/>
-    <col customWidth="1" min="14" max="18" width="25.71"/>
-    <col customWidth="1" min="19" max="19" width="31.43"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="18" width="25.6640625" customWidth="1"/>
+    <col min="19" max="19" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>593</v>
       </c>
@@ -6106,7 +6075,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="2" ht="84.0" customHeight="1">
+    <row r="2" spans="1:26" ht="84" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>233</v>
       </c>
@@ -6165,7 +6134,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="3" ht="93.0" customHeight="1">
+    <row r="3" spans="1:26" ht="93" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -6220,7 +6189,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>637</v>
       </c>
@@ -6279,7 +6248,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6302,7 +6271,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" ht="162.0" customHeight="1">
+    <row r="6" spans="1:26" ht="162" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>663</v>
       </c>
@@ -6356,11 +6325,11 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26">
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
@@ -7345,39 +7314,37 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="82.0"/>
-    <col customWidth="1" min="4" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="7" width="44.71"/>
-    <col customWidth="1" min="8" max="8" width="11.71"/>
-    <col customWidth="1" min="9" max="9" width="16.86"/>
-    <col customWidth="1" min="10" max="11" width="25.71"/>
-    <col customWidth="1" min="12" max="12" width="28.71"/>
-    <col customWidth="1" min="13" max="13" width="13.29"/>
-    <col customWidth="1" min="14" max="14" width="27.43"/>
-    <col customWidth="1" min="15" max="15" width="25.71"/>
-    <col customWidth="1" min="16" max="16" width="29.71"/>
-    <col customWidth="1" min="17" max="18" width="25.71"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" customWidth="1"/>
+    <col min="17" max="18" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>669</v>
       </c>
@@ -7433,7 +7400,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" ht="106.5" customHeight="1">
+    <row r="2" spans="1:26" ht="106.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>233</v>
       </c>
@@ -7489,7 +7456,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" ht="75.0" customHeight="1">
+    <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -7541,7 +7508,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="3" t="s">
         <v>714</v>
       </c>
@@ -7597,7 +7564,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7619,7 +7586,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="160">
       <c r="A6" s="5" t="s">
         <v>732</v>
       </c>
@@ -7671,7 +7638,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
@@ -8656,33 +8623,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.43"/>
-    <col customWidth="1" min="2" max="11" width="25.71"/>
-    <col customWidth="1" min="12" max="12" width="32.43"/>
-    <col customWidth="1" min="13" max="13" width="25.71"/>
-    <col customWidth="1" min="14" max="14" width="34.71"/>
-    <col customWidth="1" min="15" max="15" width="33.86"/>
-    <col customWidth="1" min="16" max="16" width="17.43"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
+    <col min="15" max="15" width="33.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:16" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>743</v>
       </c>
@@ -8726,7 +8689,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="68">
       <c r="A2" s="2" t="s">
         <v>754</v>
       </c>
@@ -8770,7 +8733,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="119">
       <c r="A3" s="2" t="s">
         <v>764</v>
       </c>
@@ -8810,7 +8773,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>773</v>
       </c>
@@ -8860,7 +8823,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:16" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -8880,7 +8843,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>786</v>
       </c>
@@ -8903,10 +8866,10 @@
         <v>791</v>
       </c>
       <c r="I6" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>792</v>
@@ -8927,7 +8890,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>795</v>
       </c>
@@ -8950,10 +8913,10 @@
         <v>796</v>
       </c>
       <c r="I7" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>792</v>
@@ -8974,7 +8937,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
         <v>797</v>
       </c>
@@ -8997,10 +8960,10 @@
         <v>798</v>
       </c>
       <c r="I8" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>792</v>
@@ -9021,7 +8984,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
         <v>799</v>
       </c>
@@ -9044,10 +9007,10 @@
         <v>791</v>
       </c>
       <c r="I9" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>792</v>
@@ -9068,7 +9031,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>800</v>
       </c>
@@ -9091,10 +9054,10 @@
         <v>796</v>
       </c>
       <c r="I10" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>792</v>
@@ -9115,7 +9078,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16">
       <c r="A11" s="13" t="s">
         <v>801</v>
       </c>
@@ -9138,10 +9101,10 @@
         <v>798</v>
       </c>
       <c r="I11" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>792</v>
@@ -9162,7 +9125,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16">
       <c r="A12" s="13" t="s">
         <v>802</v>
       </c>
@@ -9185,10 +9148,10 @@
         <v>791</v>
       </c>
       <c r="I12" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>792</v>
@@ -9209,7 +9172,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16">
       <c r="A13" s="13" t="s">
         <v>803</v>
       </c>
@@ -9232,10 +9195,10 @@
         <v>796</v>
       </c>
       <c r="I13" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>792</v>
@@ -9256,7 +9219,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16">
       <c r="A14" s="13" t="s">
         <v>804</v>
       </c>
@@ -9279,10 +9242,10 @@
         <v>798</v>
       </c>
       <c r="I14" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>792</v>
@@ -9303,7 +9266,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16">
       <c r="A15" s="13" t="s">
         <v>805</v>
       </c>
@@ -9326,10 +9289,10 @@
         <v>791</v>
       </c>
       <c r="I15" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>792</v>
@@ -9350,7 +9313,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16">
       <c r="A16" s="13" t="s">
         <v>806</v>
       </c>
@@ -9373,10 +9336,10 @@
         <v>796</v>
       </c>
       <c r="I16" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>792</v>
@@ -9397,7 +9360,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16">
       <c r="A17" s="13" t="s">
         <v>807</v>
       </c>
@@ -9420,10 +9383,10 @@
         <v>798</v>
       </c>
       <c r="I17" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>792</v>
@@ -9444,7 +9407,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16">
       <c r="A18" s="13" t="s">
         <v>808</v>
       </c>
@@ -9467,10 +9430,10 @@
         <v>791</v>
       </c>
       <c r="I18" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>792</v>
@@ -9491,7 +9454,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16">
       <c r="A19" s="13" t="s">
         <v>809</v>
       </c>
@@ -9514,10 +9477,10 @@
         <v>796</v>
       </c>
       <c r="I19" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>792</v>
@@ -9538,7 +9501,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
         <v>810</v>
       </c>
@@ -9561,10 +9524,10 @@
         <v>798</v>
       </c>
       <c r="I20" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>792</v>
@@ -9585,7 +9548,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>811</v>
       </c>
@@ -9608,10 +9571,10 @@
         <v>791</v>
       </c>
       <c r="I21" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J21" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>792</v>
@@ -9632,7 +9595,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>812</v>
       </c>
@@ -9655,10 +9618,10 @@
         <v>796</v>
       </c>
       <c r="I22" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>792</v>
@@ -9679,7 +9642,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>813</v>
       </c>
@@ -9702,10 +9665,10 @@
         <v>798</v>
       </c>
       <c r="I23" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>792</v>
@@ -9726,7 +9689,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>814</v>
       </c>
@@ -9749,10 +9712,10 @@
         <v>791</v>
       </c>
       <c r="I24" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J24" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>792</v>
@@ -9773,7 +9736,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>815</v>
       </c>
@@ -9796,10 +9759,10 @@
         <v>796</v>
       </c>
       <c r="I25" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J25" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>792</v>
@@ -9820,7 +9783,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>816</v>
       </c>
@@ -9843,10 +9806,10 @@
         <v>798</v>
       </c>
       <c r="I26" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J26" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>792</v>
@@ -9867,7 +9830,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>817</v>
       </c>
@@ -9890,10 +9853,10 @@
         <v>791</v>
       </c>
       <c r="I27" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J27" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>792</v>
@@ -9914,7 +9877,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>818</v>
       </c>
@@ -9937,10 +9900,10 @@
         <v>796</v>
       </c>
       <c r="I28" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>792</v>
@@ -9961,7 +9924,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>819</v>
       </c>
@@ -9984,10 +9947,10 @@
         <v>798</v>
       </c>
       <c r="I29" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J29" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>792</v>
@@ -10008,7 +9971,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>820</v>
       </c>
@@ -10031,10 +9994,10 @@
         <v>791</v>
       </c>
       <c r="I30" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>821</v>
@@ -10055,7 +10018,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>824</v>
       </c>
@@ -10078,10 +10041,10 @@
         <v>796</v>
       </c>
       <c r="I31" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>821</v>
@@ -10102,7 +10065,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>825</v>
       </c>
@@ -10125,10 +10088,10 @@
         <v>798</v>
       </c>
       <c r="I32" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>821</v>
@@ -10149,7 +10112,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>826</v>
       </c>
@@ -10172,10 +10135,10 @@
         <v>791</v>
       </c>
       <c r="I33" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>821</v>
@@ -10196,7 +10159,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>827</v>
       </c>
@@ -10219,10 +10182,10 @@
         <v>796</v>
       </c>
       <c r="I34" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>821</v>
@@ -10243,7 +10206,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>828</v>
       </c>
@@ -10266,10 +10229,10 @@
         <v>798</v>
       </c>
       <c r="I35" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>821</v>
@@ -10290,7 +10253,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>829</v>
       </c>
@@ -10313,10 +10276,10 @@
         <v>791</v>
       </c>
       <c r="I36" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>821</v>
@@ -10337,7 +10300,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>830</v>
       </c>
@@ -10360,10 +10323,10 @@
         <v>796</v>
       </c>
       <c r="I37" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J37" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>821</v>
@@ -10384,7 +10347,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>831</v>
       </c>
@@ -10407,10 +10370,10 @@
         <v>798</v>
       </c>
       <c r="I38" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J38" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>821</v>
@@ -10431,7 +10394,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>832</v>
       </c>
@@ -10454,10 +10417,10 @@
         <v>791</v>
       </c>
       <c r="I39" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J39" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>821</v>
@@ -10478,7 +10441,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>833</v>
       </c>
@@ -10501,10 +10464,10 @@
         <v>796</v>
       </c>
       <c r="I40" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J40" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>821</v>
@@ -10525,7 +10488,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>834</v>
       </c>
@@ -10548,10 +10511,10 @@
         <v>798</v>
       </c>
       <c r="I41" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J41" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>821</v>
@@ -10572,7 +10535,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>835</v>
       </c>
@@ -10595,10 +10558,10 @@
         <v>791</v>
       </c>
       <c r="I42" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J42" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>821</v>
@@ -10619,7 +10582,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>836</v>
       </c>
@@ -10642,10 +10605,10 @@
         <v>796</v>
       </c>
       <c r="I43" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J43" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>821</v>
@@ -10666,7 +10629,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>837</v>
       </c>
@@ -10689,10 +10652,10 @@
         <v>798</v>
       </c>
       <c r="I44" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J44" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>821</v>
@@ -10713,7 +10676,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>838</v>
       </c>
@@ -10736,10 +10699,10 @@
         <v>791</v>
       </c>
       <c r="I45" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J45" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>821</v>
@@ -10760,7 +10723,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>839</v>
       </c>
@@ -10783,10 +10746,10 @@
         <v>796</v>
       </c>
       <c r="I46" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J46" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>821</v>
@@ -10807,7 +10770,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>840</v>
       </c>
@@ -10830,10 +10793,10 @@
         <v>798</v>
       </c>
       <c r="I47" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J47" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>821</v>
@@ -10854,7 +10817,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>841</v>
       </c>
@@ -10877,10 +10840,10 @@
         <v>791</v>
       </c>
       <c r="I48" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J48" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>821</v>
@@ -10901,7 +10864,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>842</v>
       </c>
@@ -10924,10 +10887,10 @@
         <v>796</v>
       </c>
       <c r="I49" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J49" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>821</v>
@@ -10948,7 +10911,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>843</v>
       </c>
@@ -10971,10 +10934,10 @@
         <v>798</v>
       </c>
       <c r="I50" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J50" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>821</v>
@@ -10995,7 +10958,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>844</v>
       </c>
@@ -11018,10 +10981,10 @@
         <v>791</v>
       </c>
       <c r="I51" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J51" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>821</v>
@@ -11042,7 +11005,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:16" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>845</v>
       </c>
@@ -11065,10 +11028,10 @@
         <v>796</v>
       </c>
       <c r="I52" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J52" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>821</v>
@@ -11089,7 +11052,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:16" ht="15.75" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>846</v>
       </c>
@@ -11112,10 +11075,10 @@
         <v>798</v>
       </c>
       <c r="I53" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J53" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>821</v>
@@ -11136,7 +11099,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:16" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>847</v>
       </c>
@@ -11159,10 +11122,10 @@
         <v>791</v>
       </c>
       <c r="I54" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>848</v>
@@ -11183,7 +11146,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>851</v>
       </c>
@@ -11206,10 +11169,10 @@
         <v>796</v>
       </c>
       <c r="I55" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>848</v>
@@ -11230,7 +11193,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>852</v>
       </c>
@@ -11253,10 +11216,10 @@
         <v>798</v>
       </c>
       <c r="I56" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>848</v>
@@ -11277,7 +11240,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>853</v>
       </c>
@@ -11300,10 +11263,10 @@
         <v>791</v>
       </c>
       <c r="I57" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>848</v>
@@ -11324,7 +11287,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:16" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>854</v>
       </c>
@@ -11347,10 +11310,10 @@
         <v>796</v>
       </c>
       <c r="I58" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>848</v>
@@ -11371,7 +11334,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:16" ht="15.75" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>855</v>
       </c>
@@ -11394,10 +11357,10 @@
         <v>798</v>
       </c>
       <c r="I59" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J59" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>848</v>
@@ -11418,7 +11381,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:16" ht="15.75" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>856</v>
       </c>
@@ -11441,10 +11404,10 @@
         <v>791</v>
       </c>
       <c r="I60" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J60" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>848</v>
@@ -11465,7 +11428,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:16" ht="15.75" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>857</v>
       </c>
@@ -11488,10 +11451,10 @@
         <v>796</v>
       </c>
       <c r="I61" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J61" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>848</v>
@@ -11512,7 +11475,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>858</v>
       </c>
@@ -11535,10 +11498,10 @@
         <v>798</v>
       </c>
       <c r="I62" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J62" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>848</v>
@@ -11559,7 +11522,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>859</v>
       </c>
@@ -11582,10 +11545,10 @@
         <v>791</v>
       </c>
       <c r="I63" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J63" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>848</v>
@@ -11606,7 +11569,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>860</v>
       </c>
@@ -11629,10 +11592,10 @@
         <v>796</v>
       </c>
       <c r="I64" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J64" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>848</v>
@@ -11653,7 +11616,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>861</v>
       </c>
@@ -11676,10 +11639,10 @@
         <v>798</v>
       </c>
       <c r="I65" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J65" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>848</v>
@@ -11700,7 +11663,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>862</v>
       </c>
@@ -11723,10 +11686,10 @@
         <v>791</v>
       </c>
       <c r="I66" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J66" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>848</v>
@@ -11747,7 +11710,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>863</v>
       </c>
@@ -11770,10 +11733,10 @@
         <v>796</v>
       </c>
       <c r="I67" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J67" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>848</v>
@@ -11794,7 +11757,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:16" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>864</v>
       </c>
@@ -11817,10 +11780,10 @@
         <v>798</v>
       </c>
       <c r="I68" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J68" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>848</v>
@@ -11841,7 +11804,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>865</v>
       </c>
@@ -11864,10 +11827,10 @@
         <v>791</v>
       </c>
       <c r="I69" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J69" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>848</v>
@@ -11888,7 +11851,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>866</v>
       </c>
@@ -11911,10 +11874,10 @@
         <v>796</v>
       </c>
       <c r="I70" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J70" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>848</v>
@@ -11935,7 +11898,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>867</v>
       </c>
@@ -11958,10 +11921,10 @@
         <v>798</v>
       </c>
       <c r="I71" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J71" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>848</v>
@@ -11982,7 +11945,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:16" ht="15.75" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>868</v>
       </c>
@@ -12005,10 +11968,10 @@
         <v>791</v>
       </c>
       <c r="I72" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J72" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>848</v>
@@ -12029,7 +11992,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:16" ht="15.75" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>869</v>
       </c>
@@ -12052,10 +12015,10 @@
         <v>796</v>
       </c>
       <c r="I73" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J73" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>848</v>
@@ -12076,7 +12039,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:16" ht="15.75" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>870</v>
       </c>
@@ -12099,10 +12062,10 @@
         <v>798</v>
       </c>
       <c r="I74" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J74" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>848</v>
@@ -12123,7 +12086,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>871</v>
       </c>
@@ -12146,10 +12109,10 @@
         <v>791</v>
       </c>
       <c r="I75" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J75" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>848</v>
@@ -12170,7 +12133,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>872</v>
       </c>
@@ -12193,10 +12156,10 @@
         <v>796</v>
       </c>
       <c r="I76" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J76" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>848</v>
@@ -12217,7 +12180,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:16" ht="15.75" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>873</v>
       </c>
@@ -12240,10 +12203,10 @@
         <v>798</v>
       </c>
       <c r="I77" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J77" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>848</v>
@@ -12264,7 +12227,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:16" ht="15.75" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>874</v>
       </c>
@@ -12287,10 +12250,10 @@
         <v>791</v>
       </c>
       <c r="I78" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>875</v>
@@ -12311,7 +12274,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:16" ht="15.75" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>878</v>
       </c>
@@ -12334,10 +12297,10 @@
         <v>796</v>
       </c>
       <c r="I79" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>875</v>
@@ -12358,7 +12321,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:16" ht="15.75" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>879</v>
       </c>
@@ -12381,10 +12344,10 @@
         <v>798</v>
       </c>
       <c r="I80" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>875</v>
@@ -12405,7 +12368,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>880</v>
       </c>
@@ -12428,10 +12391,10 @@
         <v>791</v>
       </c>
       <c r="I81" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J81" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K81" s="10" t="s">
         <v>875</v>
@@ -12452,7 +12415,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>881</v>
       </c>
@@ -12475,10 +12438,10 @@
         <v>796</v>
       </c>
       <c r="I82" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J82" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K82" s="10" t="s">
         <v>875</v>
@@ -12499,7 +12462,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>882</v>
       </c>
@@ -12522,10 +12485,10 @@
         <v>798</v>
       </c>
       <c r="I83" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J83" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>875</v>
@@ -12546,7 +12509,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:16" ht="15.75" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>883</v>
       </c>
@@ -12569,10 +12532,10 @@
         <v>791</v>
       </c>
       <c r="I84" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J84" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>875</v>
@@ -12593,7 +12556,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:16" ht="15.75" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>884</v>
       </c>
@@ -12616,10 +12579,10 @@
         <v>796</v>
       </c>
       <c r="I85" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J85" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>875</v>
@@ -12640,7 +12603,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>885</v>
       </c>
@@ -12663,10 +12626,10 @@
         <v>798</v>
       </c>
       <c r="I86" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J86" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K86" s="10" t="s">
         <v>875</v>
@@ -12687,7 +12650,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:16" ht="15.75" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>886</v>
       </c>
@@ -12710,10 +12673,10 @@
         <v>791</v>
       </c>
       <c r="I87" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J87" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K87" s="10" t="s">
         <v>875</v>
@@ -12734,7 +12697,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:16" ht="15.75" customHeight="1">
       <c r="A88" s="13" t="s">
         <v>887</v>
       </c>
@@ -12757,10 +12720,10 @@
         <v>796</v>
       </c>
       <c r="I88" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J88" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K88" s="10" t="s">
         <v>875</v>
@@ -12781,7 +12744,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:16" ht="15.75" customHeight="1">
       <c r="A89" s="13" t="s">
         <v>888</v>
       </c>
@@ -12804,10 +12767,10 @@
         <v>798</v>
       </c>
       <c r="I89" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J89" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>875</v>
@@ -12828,7 +12791,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:16" ht="15.75" customHeight="1">
       <c r="A90" s="13" t="s">
         <v>889</v>
       </c>
@@ -12851,10 +12814,10 @@
         <v>791</v>
       </c>
       <c r="I90" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J90" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>875</v>
@@ -12875,7 +12838,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:16" ht="15.75" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>890</v>
       </c>
@@ -12898,10 +12861,10 @@
         <v>796</v>
       </c>
       <c r="I91" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J91" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>875</v>
@@ -12922,7 +12885,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:16" ht="15.75" customHeight="1">
       <c r="A92" s="13" t="s">
         <v>891</v>
       </c>
@@ -12945,10 +12908,10 @@
         <v>798</v>
       </c>
       <c r="I92" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J92" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>875</v>
@@ -12969,7 +12932,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:16" ht="15.75" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>892</v>
       </c>
@@ -12992,10 +12955,10 @@
         <v>791</v>
       </c>
       <c r="I93" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J93" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>875</v>
@@ -13016,7 +12979,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:16" ht="15.75" customHeight="1">
       <c r="A94" s="13" t="s">
         <v>893</v>
       </c>
@@ -13039,10 +13002,10 @@
         <v>796</v>
       </c>
       <c r="I94" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J94" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>875</v>
@@ -13063,7 +13026,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:16" ht="15.75" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>894</v>
       </c>
@@ -13086,10 +13049,10 @@
         <v>798</v>
       </c>
       <c r="I95" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J95" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>875</v>
@@ -13110,7 +13073,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:16" ht="15.75" customHeight="1">
       <c r="A96" s="13" t="s">
         <v>895</v>
       </c>
@@ -13133,10 +13096,10 @@
         <v>791</v>
       </c>
       <c r="I96" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J96" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>875</v>
@@ -13157,7 +13120,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:16" ht="15.75" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>896</v>
       </c>
@@ -13180,10 +13143,10 @@
         <v>796</v>
       </c>
       <c r="I97" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J97" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>875</v>
@@ -13204,7 +13167,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:16" ht="15.75" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>897</v>
       </c>
@@ -13227,10 +13190,10 @@
         <v>798</v>
       </c>
       <c r="I98" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J98" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>875</v>
@@ -13251,7 +13214,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>898</v>
       </c>
@@ -13274,10 +13237,10 @@
         <v>791</v>
       </c>
       <c r="I99" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J99" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K99" s="10" t="s">
         <v>875</v>
@@ -13298,7 +13261,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:16" ht="15.75" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>899</v>
       </c>
@@ -13321,10 +13284,10 @@
         <v>796</v>
       </c>
       <c r="I100" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J100" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K100" s="10" t="s">
         <v>875</v>
@@ -13345,7 +13308,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:16" ht="15.75" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>900</v>
       </c>
@@ -13368,10 +13331,10 @@
         <v>798</v>
       </c>
       <c r="I101" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J101" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>875</v>
@@ -13392,7 +13355,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:16" ht="15.75" customHeight="1">
       <c r="A102" s="13" t="s">
         <v>901</v>
       </c>
@@ -13415,10 +13378,10 @@
         <v>791</v>
       </c>
       <c r="I102" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>902</v>
@@ -13439,7 +13402,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:16" ht="15.75" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>905</v>
       </c>
@@ -13462,10 +13425,10 @@
         <v>796</v>
       </c>
       <c r="I103" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K103" s="10" t="s">
         <v>902</v>
@@ -13486,7 +13449,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:16" ht="15.75" customHeight="1">
       <c r="A104" s="13" t="s">
         <v>906</v>
       </c>
@@ -13509,10 +13472,10 @@
         <v>798</v>
       </c>
       <c r="I104" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K104" s="10" t="s">
         <v>902</v>
@@ -13533,7 +13496,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:16" ht="15.75" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>907</v>
       </c>
@@ -13556,10 +13519,10 @@
         <v>791</v>
       </c>
       <c r="I105" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J105" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>902</v>
@@ -13580,7 +13543,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:16" ht="15.75" customHeight="1">
       <c r="A106" s="13" t="s">
         <v>908</v>
       </c>
@@ -13603,10 +13566,10 @@
         <v>796</v>
       </c>
       <c r="I106" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J106" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K106" s="10" t="s">
         <v>902</v>
@@ -13627,7 +13590,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:16" ht="15.75" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>909</v>
       </c>
@@ -13650,10 +13613,10 @@
         <v>798</v>
       </c>
       <c r="I107" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J107" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>902</v>
@@ -13674,7 +13637,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:16" ht="15.75" customHeight="1">
       <c r="A108" s="13" t="s">
         <v>910</v>
       </c>
@@ -13697,10 +13660,10 @@
         <v>791</v>
       </c>
       <c r="I108" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J108" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>902</v>
@@ -13721,7 +13684,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:16" ht="15.75" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>911</v>
       </c>
@@ -13744,10 +13707,10 @@
         <v>796</v>
       </c>
       <c r="I109" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J109" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K109" s="10" t="s">
         <v>902</v>
@@ -13768,7 +13731,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:16" ht="15.75" customHeight="1">
       <c r="A110" s="13" t="s">
         <v>912</v>
       </c>
@@ -13791,10 +13754,10 @@
         <v>798</v>
       </c>
       <c r="I110" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J110" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K110" s="10" t="s">
         <v>902</v>
@@ -13815,7 +13778,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:16" ht="15.75" customHeight="1">
       <c r="A111" s="13" t="s">
         <v>913</v>
       </c>
@@ -13838,10 +13801,10 @@
         <v>791</v>
       </c>
       <c r="I111" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J111" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>902</v>
@@ -13862,7 +13825,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:16" ht="15.75" customHeight="1">
       <c r="A112" s="13" t="s">
         <v>914</v>
       </c>
@@ -13885,10 +13848,10 @@
         <v>796</v>
       </c>
       <c r="I112" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J112" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>902</v>
@@ -13909,7 +13872,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:16" ht="15.75" customHeight="1">
       <c r="A113" s="13" t="s">
         <v>915</v>
       </c>
@@ -13932,10 +13895,10 @@
         <v>798</v>
       </c>
       <c r="I113" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J113" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>902</v>
@@ -13956,7 +13919,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:16" ht="15.75" customHeight="1">
       <c r="A114" s="13" t="s">
         <v>916</v>
       </c>
@@ -13979,10 +13942,10 @@
         <v>791</v>
       </c>
       <c r="I114" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J114" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K114" s="10" t="s">
         <v>902</v>
@@ -14003,7 +13966,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:16" ht="15.75" customHeight="1">
       <c r="A115" s="13" t="s">
         <v>917</v>
       </c>
@@ -14026,10 +13989,10 @@
         <v>796</v>
       </c>
       <c r="I115" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J115" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>902</v>
@@ -14050,7 +14013,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:16" ht="15.75" customHeight="1">
       <c r="A116" s="13" t="s">
         <v>918</v>
       </c>
@@ -14073,10 +14036,10 @@
         <v>798</v>
       </c>
       <c r="I116" s="13">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J116" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K116" s="10" t="s">
         <v>902</v>
@@ -14097,7 +14060,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:16" ht="15.75" customHeight="1">
       <c r="A117" s="13" t="s">
         <v>919</v>
       </c>
@@ -14120,10 +14083,10 @@
         <v>791</v>
       </c>
       <c r="I117" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J117" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>902</v>
@@ -14144,7 +14107,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:16" ht="15.75" customHeight="1">
       <c r="A118" s="13" t="s">
         <v>920</v>
       </c>
@@ -14167,10 +14130,10 @@
         <v>796</v>
       </c>
       <c r="I118" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J118" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K118" s="10" t="s">
         <v>902</v>
@@ -14191,7 +14154,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:16" ht="15.75" customHeight="1">
       <c r="A119" s="13" t="s">
         <v>921</v>
       </c>
@@ -14214,10 +14177,10 @@
         <v>798</v>
       </c>
       <c r="I119" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J119" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K119" s="10" t="s">
         <v>902</v>
@@ -14238,7 +14201,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:16" ht="15.75" customHeight="1">
       <c r="A120" s="13" t="s">
         <v>922</v>
       </c>
@@ -14261,10 +14224,10 @@
         <v>791</v>
       </c>
       <c r="I120" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J120" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K120" s="10" t="s">
         <v>902</v>
@@ -14285,7 +14248,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:16" ht="15.75" customHeight="1">
       <c r="A121" s="13" t="s">
         <v>923</v>
       </c>
@@ -14308,10 +14271,10 @@
         <v>796</v>
       </c>
       <c r="I121" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J121" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K121" s="10" t="s">
         <v>902</v>
@@ -14332,7 +14295,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:16" ht="15.75" customHeight="1">
       <c r="A122" s="13" t="s">
         <v>924</v>
       </c>
@@ -14355,10 +14318,10 @@
         <v>798</v>
       </c>
       <c r="I122" s="13">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J122" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K122" s="10" t="s">
         <v>902</v>
@@ -14379,7 +14342,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:16" ht="15.75" customHeight="1">
       <c r="A123" s="13" t="s">
         <v>925</v>
       </c>
@@ -14402,10 +14365,10 @@
         <v>791</v>
       </c>
       <c r="I123" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J123" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K123" s="10" t="s">
         <v>902</v>
@@ -14426,7 +14389,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:16" ht="15.75" customHeight="1">
       <c r="A124" s="13" t="s">
         <v>926</v>
       </c>
@@ -14449,10 +14412,10 @@
         <v>796</v>
       </c>
       <c r="I124" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J124" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K124" s="10" t="s">
         <v>902</v>
@@ -14473,7 +14436,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:16" ht="15.75" customHeight="1">
       <c r="A125" s="13" t="s">
         <v>927</v>
       </c>
@@ -14496,10 +14459,10 @@
         <v>798</v>
       </c>
       <c r="I125" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J125" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K125" s="10" t="s">
         <v>902</v>
@@ -14520,2729 +14483,2725 @@
         <v>904</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:16" ht="15.75" customHeight="1">
       <c r="D126" s="9"/>
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:16" ht="15.75" customHeight="1">
       <c r="D127" s="9"/>
       <c r="E127" s="29"/>
       <c r="F127" s="29"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:16" ht="15.75" customHeight="1">
       <c r="D128" s="9"/>
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:12" ht="15.75" customHeight="1">
       <c r="D129" s="9"/>
       <c r="E129" s="29"/>
       <c r="F129" s="29"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:12" ht="15.75" customHeight="1">
       <c r="D130" s="9"/>
       <c r="E130" s="29"/>
       <c r="F130" s="29"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:12" ht="15.75" customHeight="1">
       <c r="D131" s="9"/>
       <c r="E131" s="29"/>
       <c r="F131" s="29"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:12" ht="15.75" customHeight="1">
       <c r="D132" s="9"/>
       <c r="E132" s="29"/>
       <c r="F132" s="29"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:12" ht="15.75" customHeight="1">
       <c r="D133" s="9"/>
       <c r="E133" s="29"/>
       <c r="F133" s="29"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:12" ht="15.75" customHeight="1">
       <c r="D134" s="9"/>
       <c r="E134" s="29"/>
       <c r="F134" s="29"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:12" ht="15.75" customHeight="1">
       <c r="D135" s="9"/>
       <c r="E135" s="29"/>
       <c r="F135" s="29"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:12" ht="15.75" customHeight="1">
       <c r="D136" s="9"/>
       <c r="E136" s="29"/>
       <c r="F136" s="29"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:12" ht="15.75" customHeight="1">
       <c r="D137" s="9"/>
       <c r="E137" s="29"/>
       <c r="F137" s="29"/>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:12" ht="15.75" customHeight="1">
       <c r="D138" s="9"/>
       <c r="E138" s="29"/>
       <c r="F138" s="29"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:12" ht="15.75" customHeight="1">
       <c r="D139" s="9"/>
       <c r="E139" s="29"/>
       <c r="F139" s="29"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:12" ht="15.75" customHeight="1">
       <c r="D140" s="9"/>
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:12" ht="15.75" customHeight="1">
       <c r="D141" s="9"/>
       <c r="E141" s="29"/>
       <c r="F141" s="29"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:12" ht="15.75" customHeight="1">
       <c r="D142" s="9"/>
       <c r="E142" s="29"/>
       <c r="F142" s="29"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:12" ht="15.75" customHeight="1">
       <c r="D143" s="9"/>
       <c r="E143" s="29"/>
       <c r="F143" s="29"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:12" ht="15.75" customHeight="1">
       <c r="D144" s="9"/>
       <c r="E144" s="29"/>
       <c r="F144" s="29"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:12" ht="15.75" customHeight="1">
       <c r="D145" s="9"/>
       <c r="E145" s="29"/>
       <c r="F145" s="29"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:12" ht="15.75" customHeight="1">
       <c r="D146" s="9"/>
       <c r="E146" s="29"/>
       <c r="F146" s="29"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:12" ht="15.75" customHeight="1">
       <c r="D147" s="9"/>
       <c r="E147" s="29"/>
       <c r="F147" s="29"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:12" ht="15.75" customHeight="1">
       <c r="D148" s="9"/>
       <c r="E148" s="29"/>
       <c r="F148" s="29"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:12" ht="15.75" customHeight="1">
       <c r="D149" s="9"/>
       <c r="E149" s="29"/>
       <c r="F149" s="29"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:12" ht="15.75" customHeight="1">
       <c r="L150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:12" ht="15.75" customHeight="1">
       <c r="L151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:12" ht="15.75" customHeight="1">
       <c r="L152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:12" ht="15.75" customHeight="1">
       <c r="L153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:12" ht="15.75" customHeight="1">
       <c r="L154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:12" ht="15.75" customHeight="1">
       <c r="L155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:12" ht="15.75" customHeight="1">
       <c r="L156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:12" ht="15.75" customHeight="1">
       <c r="L157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:12" ht="15.75" customHeight="1">
       <c r="L158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:12" ht="15.75" customHeight="1">
       <c r="L159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:12" ht="15.75" customHeight="1">
       <c r="L160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="12:12" ht="15.75" customHeight="1">
       <c r="L161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="12:12" ht="15.75" customHeight="1">
       <c r="L162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="12:12" ht="15.75" customHeight="1">
       <c r="L163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="12:12" ht="15.75" customHeight="1">
       <c r="L164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="12:12" ht="15.75" customHeight="1">
       <c r="L165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="12:12" ht="15.75" customHeight="1">
       <c r="L166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="12:12" ht="15.75" customHeight="1">
       <c r="L167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="12:12" ht="15.75" customHeight="1">
       <c r="L168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="12:12" ht="15.75" customHeight="1">
       <c r="L169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="12:12" ht="15.75" customHeight="1">
       <c r="L170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="12:12" ht="15.75" customHeight="1">
       <c r="L171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="12:12" ht="15.75" customHeight="1">
       <c r="L172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="12:12" ht="15.75" customHeight="1">
       <c r="L173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="12:12" ht="15.75" customHeight="1">
       <c r="L174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="12:12" ht="15.75" customHeight="1">
       <c r="L175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="12:12" ht="15.75" customHeight="1">
       <c r="L176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="12:12" ht="15.75" customHeight="1">
       <c r="L177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="12:12" ht="15.75" customHeight="1">
       <c r="L178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="12:12" ht="15.75" customHeight="1">
       <c r="L179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="12:12" ht="15.75" customHeight="1">
       <c r="L180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="12:12" ht="15.75" customHeight="1">
       <c r="L181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="12:12" ht="15.75" customHeight="1">
       <c r="L182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="12:12" ht="15.75" customHeight="1">
       <c r="L183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="12:12" ht="15.75" customHeight="1">
       <c r="L184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="12:12" ht="15.75" customHeight="1">
       <c r="L185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="12:12" ht="15.75" customHeight="1">
       <c r="L186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="12:12" ht="15.75" customHeight="1">
       <c r="L187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="12:12" ht="15.75" customHeight="1">
       <c r="L188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="12:12" ht="15.75" customHeight="1">
       <c r="L189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="12:12" ht="15.75" customHeight="1">
       <c r="L190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="12:12" ht="15.75" customHeight="1">
       <c r="L191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="12:12" ht="15.75" customHeight="1">
       <c r="L192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="12:12" ht="15.75" customHeight="1">
       <c r="L193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="12:12" ht="15.75" customHeight="1">
       <c r="L194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="12:12" ht="15.75" customHeight="1">
       <c r="L195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="12:12" ht="15.75" customHeight="1">
       <c r="L196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="12:12" ht="15.75" customHeight="1">
       <c r="L197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="12:12" ht="15.75" customHeight="1">
       <c r="L198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="12:12" ht="15.75" customHeight="1">
       <c r="L199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="12:12" ht="15.75" customHeight="1">
       <c r="L200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="12:12" ht="15.75" customHeight="1">
       <c r="L201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="12:12" ht="15.75" customHeight="1">
       <c r="L202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="12:12" ht="15.75" customHeight="1">
       <c r="L203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="12:12" ht="15.75" customHeight="1">
       <c r="L204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="12:12" ht="15.75" customHeight="1">
       <c r="L205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="12:12" ht="15.75" customHeight="1">
       <c r="L206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="12:12" ht="15.75" customHeight="1">
       <c r="L207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="12:12" ht="15.75" customHeight="1">
       <c r="L208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="12:12" ht="15.75" customHeight="1">
       <c r="L209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="12:12" ht="15.75" customHeight="1">
       <c r="L210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="12:12" ht="15.75" customHeight="1">
       <c r="L211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="12:12" ht="15.75" customHeight="1">
       <c r="L212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="12:12" ht="15.75" customHeight="1">
       <c r="L213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="12:12" ht="15.75" customHeight="1">
       <c r="L214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="12:12" ht="15.75" customHeight="1">
       <c r="L215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="12:12" ht="15.75" customHeight="1">
       <c r="L216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="12:12" ht="15.75" customHeight="1">
       <c r="L217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="12:12" ht="15.75" customHeight="1">
       <c r="L218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="12:12" ht="15.75" customHeight="1">
       <c r="L219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="12:12" ht="15.75" customHeight="1">
       <c r="L220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="12:12" ht="15.75" customHeight="1">
       <c r="L221" s="3"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="12:12" ht="15.75" customHeight="1">
       <c r="L222" s="3"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="12:12" ht="15.75" customHeight="1">
       <c r="L223" s="3"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="12:12" ht="15.75" customHeight="1">
       <c r="L224" s="3"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="12:12" ht="15.75" customHeight="1">
       <c r="L225" s="3"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="12:12" ht="15.75" customHeight="1">
       <c r="L226" s="3"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="12:12" ht="15.75" customHeight="1">
       <c r="L227" s="3"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="12:12" ht="15.75" customHeight="1">
       <c r="L228" s="3"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="12:12" ht="15.75" customHeight="1">
       <c r="L229" s="3"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="12:12" ht="15.75" customHeight="1">
       <c r="L230" s="3"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="12:12" ht="15.75" customHeight="1">
       <c r="L231" s="3"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="12:12" ht="15.75" customHeight="1">
       <c r="L232" s="3"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="12:12" ht="15.75" customHeight="1">
       <c r="L233" s="3"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="12:12" ht="15.75" customHeight="1">
       <c r="L234" s="3"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="12:12" ht="15.75" customHeight="1">
       <c r="L235" s="3"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="12:12" ht="15.75" customHeight="1">
       <c r="L236" s="3"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="12:12" ht="15.75" customHeight="1">
       <c r="L237" s="3"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="12:12" ht="15.75" customHeight="1">
       <c r="L238" s="3"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="12:12" ht="15.75" customHeight="1">
       <c r="L239" s="3"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="12:12" ht="15.75" customHeight="1">
       <c r="L240" s="3"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="12:12" ht="15.75" customHeight="1">
       <c r="L241" s="3"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="12:12" ht="15.75" customHeight="1">
       <c r="L242" s="3"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="12:12" ht="15.75" customHeight="1">
       <c r="L243" s="3"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="12:12" ht="15.75" customHeight="1">
       <c r="L244" s="3"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="12:12" ht="15.75" customHeight="1">
       <c r="L245" s="3"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="12:12" ht="15.75" customHeight="1">
       <c r="L246" s="3"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="12:12" ht="15.75" customHeight="1">
       <c r="L247" s="3"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="12:12" ht="15.75" customHeight="1">
       <c r="L248" s="3"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="12:12" ht="15.75" customHeight="1">
       <c r="L249" s="3"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="12:12" ht="15.75" customHeight="1">
       <c r="L250" s="3"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="12:12" ht="15.75" customHeight="1">
       <c r="L251" s="3"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="12:12" ht="15.75" customHeight="1">
       <c r="L252" s="3"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="12:12" ht="15.75" customHeight="1">
       <c r="L253" s="3"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="12:12" ht="15.75" customHeight="1">
       <c r="L254" s="3"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="12:12" ht="15.75" customHeight="1">
       <c r="L255" s="3"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="12:12" ht="15.75" customHeight="1">
       <c r="L256" s="3"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="12:12" ht="15.75" customHeight="1">
       <c r="L257" s="3"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="12:12" ht="15.75" customHeight="1">
       <c r="L258" s="3"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="12:12" ht="15.75" customHeight="1">
       <c r="L259" s="3"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="12:12" ht="15.75" customHeight="1">
       <c r="L260" s="3"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="12:12" ht="15.75" customHeight="1">
       <c r="L261" s="3"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="12:12" ht="15.75" customHeight="1">
       <c r="L262" s="3"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="12:12" ht="15.75" customHeight="1">
       <c r="L263" s="3"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="12:12" ht="15.75" customHeight="1">
       <c r="L264" s="3"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="12:12" ht="15.75" customHeight="1">
       <c r="L265" s="3"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="12:12" ht="15.75" customHeight="1">
       <c r="L266" s="3"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="12:12" ht="15.75" customHeight="1">
       <c r="L267" s="3"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="12:12" ht="15.75" customHeight="1">
       <c r="L268" s="3"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="12:12" ht="15.75" customHeight="1">
       <c r="L269" s="3"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="12:12" ht="15.75" customHeight="1">
       <c r="L270" s="3"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="12:12" ht="15.75" customHeight="1">
       <c r="L271" s="3"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="12:12" ht="15.75" customHeight="1">
       <c r="L272" s="3"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="12:12" ht="15.75" customHeight="1">
       <c r="L273" s="3"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="12:12" ht="15.75" customHeight="1">
       <c r="L274" s="3"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="12:12" ht="15.75" customHeight="1">
       <c r="L275" s="3"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="12:12" ht="15.75" customHeight="1">
       <c r="L276" s="3"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="12:12" ht="15.75" customHeight="1">
       <c r="L277" s="3"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="12:12" ht="15.75" customHeight="1">
       <c r="L278" s="3"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="12:12" ht="15.75" customHeight="1">
       <c r="L279" s="3"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="12:12" ht="15.75" customHeight="1">
       <c r="L280" s="3"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="12:12" ht="15.75" customHeight="1">
       <c r="L281" s="3"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="12:12" ht="15.75" customHeight="1">
       <c r="L282" s="3"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="12:12" ht="15.75" customHeight="1">
       <c r="L283" s="3"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="12:12" ht="15.75" customHeight="1">
       <c r="L284" s="3"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="12:12" ht="15.75" customHeight="1">
       <c r="L285" s="3"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="12:12" ht="15.75" customHeight="1">
       <c r="L286" s="3"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="12:12" ht="15.75" customHeight="1">
       <c r="L287" s="3"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="12:12" ht="15.75" customHeight="1">
       <c r="L288" s="3"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="12:12" ht="15.75" customHeight="1">
       <c r="L289" s="3"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="12:12" ht="15.75" customHeight="1">
       <c r="L290" s="3"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="12:12" ht="15.75" customHeight="1">
       <c r="L291" s="3"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="12:12" ht="15.75" customHeight="1">
       <c r="L292" s="3"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="12:12" ht="15.75" customHeight="1">
       <c r="L293" s="3"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="12:12" ht="15.75" customHeight="1">
       <c r="L294" s="3"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="12:12" ht="15.75" customHeight="1">
       <c r="L295" s="3"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="12:12" ht="15.75" customHeight="1">
       <c r="L296" s="3"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="12:12" ht="15.75" customHeight="1">
       <c r="L297" s="3"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="12:12" ht="15.75" customHeight="1">
       <c r="L298" s="3"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="12:12" ht="15.75" customHeight="1">
       <c r="L299" s="3"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="12:12" ht="15.75" customHeight="1">
       <c r="L300" s="3"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="12:12" ht="15.75" customHeight="1">
       <c r="L301" s="3"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="12:12" ht="15.75" customHeight="1">
       <c r="L302" s="3"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="12:12" ht="15.75" customHeight="1">
       <c r="L303" s="3"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="12:12" ht="15.75" customHeight="1">
       <c r="L304" s="3"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="12:12" ht="15.75" customHeight="1">
       <c r="L305" s="3"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="12:12" ht="15.75" customHeight="1">
       <c r="L306" s="3"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="12:12" ht="15.75" customHeight="1">
       <c r="L307" s="3"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="12:12" ht="15.75" customHeight="1">
       <c r="L308" s="3"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="12:12" ht="15.75" customHeight="1">
       <c r="L309" s="3"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="12:12" ht="15.75" customHeight="1">
       <c r="L310" s="3"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="12:12" ht="15.75" customHeight="1">
       <c r="L311" s="3"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="12:12" ht="15.75" customHeight="1">
       <c r="L312" s="3"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="12:12" ht="15.75" customHeight="1">
       <c r="L313" s="3"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="12:12" ht="15.75" customHeight="1">
       <c r="L314" s="3"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="12:12" ht="15.75" customHeight="1">
       <c r="L315" s="3"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="12:12" ht="15.75" customHeight="1">
       <c r="L316" s="3"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="12:12" ht="15.75" customHeight="1">
       <c r="L317" s="3"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="12:12" ht="15.75" customHeight="1">
       <c r="L318" s="3"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="12:12" ht="15.75" customHeight="1">
       <c r="L319" s="3"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="12:12" ht="15.75" customHeight="1">
       <c r="L320" s="3"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="12:12" ht="15.75" customHeight="1">
       <c r="L321" s="3"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="12:12" ht="15.75" customHeight="1">
       <c r="L322" s="3"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="12:12" ht="15.75" customHeight="1">
       <c r="L323" s="3"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="12:12" ht="15.75" customHeight="1">
       <c r="L324" s="3"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="12:12" ht="15.75" customHeight="1">
       <c r="L325" s="3"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="12:12" ht="15.75" customHeight="1">
       <c r="L326" s="3"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="12:12" ht="15.75" customHeight="1">
       <c r="L327" s="3"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="12:12" ht="15.75" customHeight="1">
       <c r="L328" s="3"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="12:12" ht="15.75" customHeight="1">
       <c r="L329" s="3"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="12:12" ht="15.75" customHeight="1">
       <c r="L330" s="3"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="12:12" ht="15.75" customHeight="1">
       <c r="L331" s="3"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="12:12" ht="15.75" customHeight="1">
       <c r="L332" s="3"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="12:12" ht="15.75" customHeight="1">
       <c r="L333" s="3"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="12:12" ht="15.75" customHeight="1">
       <c r="L334" s="3"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="12:12" ht="15.75" customHeight="1">
       <c r="L335" s="3"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="12:12" ht="15.75" customHeight="1">
       <c r="L336" s="3"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="12:12" ht="15.75" customHeight="1">
       <c r="L337" s="3"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="12:12" ht="15.75" customHeight="1">
       <c r="L338" s="3"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="12:12" ht="15.75" customHeight="1">
       <c r="L339" s="3"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="12:12" ht="15.75" customHeight="1">
       <c r="L340" s="3"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="12:12" ht="15.75" customHeight="1">
       <c r="L341" s="3"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="12:12" ht="15.75" customHeight="1">
       <c r="L342" s="3"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="12:12" ht="15.75" customHeight="1">
       <c r="L343" s="3"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="12:12" ht="15.75" customHeight="1">
       <c r="L344" s="3"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="12:12" ht="15.75" customHeight="1">
       <c r="L345" s="3"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="12:12" ht="15.75" customHeight="1">
       <c r="L346" s="3"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="12:12" ht="15.75" customHeight="1">
       <c r="L347" s="3"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="12:12" ht="15.75" customHeight="1">
       <c r="L348" s="3"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="12:12" ht="15.75" customHeight="1">
       <c r="L349" s="3"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="12:12" ht="15.75" customHeight="1">
       <c r="L350" s="3"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="12:12" ht="15.75" customHeight="1">
       <c r="L351" s="3"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="12:12" ht="15.75" customHeight="1">
       <c r="L352" s="3"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="12:12" ht="15.75" customHeight="1">
       <c r="L353" s="3"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="12:12" ht="15.75" customHeight="1">
       <c r="L354" s="3"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="12:12" ht="15.75" customHeight="1">
       <c r="L355" s="3"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="12:12" ht="15.75" customHeight="1">
       <c r="L356" s="3"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="12:12" ht="15.75" customHeight="1">
       <c r="L357" s="3"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="12:12" ht="15.75" customHeight="1">
       <c r="L358" s="3"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="12:12" ht="15.75" customHeight="1">
       <c r="L359" s="3"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="12:12" ht="15.75" customHeight="1">
       <c r="L360" s="3"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="12:12" ht="15.75" customHeight="1">
       <c r="L361" s="3"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="12:12" ht="15.75" customHeight="1">
       <c r="L362" s="3"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="12:12" ht="15.75" customHeight="1">
       <c r="L363" s="3"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="12:12" ht="15.75" customHeight="1">
       <c r="L364" s="3"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="12:12" ht="15.75" customHeight="1">
       <c r="L365" s="3"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="12:12" ht="15.75" customHeight="1">
       <c r="L366" s="3"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="12:12" ht="15.75" customHeight="1">
       <c r="L367" s="3"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="12:12" ht="15.75" customHeight="1">
       <c r="L368" s="3"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="12:12" ht="15.75" customHeight="1">
       <c r="L369" s="3"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="12:12" ht="15.75" customHeight="1">
       <c r="L370" s="3"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="12:12" ht="15.75" customHeight="1">
       <c r="L371" s="3"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="12:12" ht="15.75" customHeight="1">
       <c r="L372" s="3"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="12:12" ht="15.75" customHeight="1">
       <c r="L373" s="3"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="12:12" ht="15.75" customHeight="1">
       <c r="L374" s="3"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="12:12" ht="15.75" customHeight="1">
       <c r="L375" s="3"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="12:12" ht="15.75" customHeight="1">
       <c r="L376" s="3"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="12:12" ht="15.75" customHeight="1">
       <c r="L377" s="3"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="12:12" ht="15.75" customHeight="1">
       <c r="L378" s="3"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="12:12" ht="15.75" customHeight="1">
       <c r="L379" s="3"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="12:12" ht="15.75" customHeight="1">
       <c r="L380" s="3"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="12:12" ht="15.75" customHeight="1">
       <c r="L381" s="3"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="12:12" ht="15.75" customHeight="1">
       <c r="L382" s="3"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="12:12" ht="15.75" customHeight="1">
       <c r="L383" s="3"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="12:12" ht="15.75" customHeight="1">
       <c r="L384" s="3"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="12:12" ht="15.75" customHeight="1">
       <c r="L385" s="3"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="12:12" ht="15.75" customHeight="1">
       <c r="L386" s="3"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="12:12" ht="15.75" customHeight="1">
       <c r="L387" s="3"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="12:12" ht="15.75" customHeight="1">
       <c r="L388" s="3"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="12:12" ht="15.75" customHeight="1">
       <c r="L389" s="3"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="12:12" ht="15.75" customHeight="1">
       <c r="L390" s="3"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="12:12" ht="15.75" customHeight="1">
       <c r="L391" s="3"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="12:12" ht="15.75" customHeight="1">
       <c r="L392" s="3"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="12:12" ht="15.75" customHeight="1">
       <c r="L393" s="3"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="12:12" ht="15.75" customHeight="1">
       <c r="L394" s="3"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="12:12" ht="15.75" customHeight="1">
       <c r="L395" s="3"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="12:12" ht="15.75" customHeight="1">
       <c r="L396" s="3"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="12:12" ht="15.75" customHeight="1">
       <c r="L397" s="3"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="12:12" ht="15.75" customHeight="1">
       <c r="L398" s="3"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="12:12" ht="15.75" customHeight="1">
       <c r="L399" s="3"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="12:12" ht="15.75" customHeight="1">
       <c r="L400" s="3"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="12:12" ht="15.75" customHeight="1">
       <c r="L401" s="3"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="12:12" ht="15.75" customHeight="1">
       <c r="L402" s="3"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="12:12" ht="15.75" customHeight="1">
       <c r="L403" s="3"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="12:12" ht="15.75" customHeight="1">
       <c r="L404" s="3"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="12:12" ht="15.75" customHeight="1">
       <c r="L405" s="3"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="12:12" ht="15.75" customHeight="1">
       <c r="L406" s="3"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="12:12" ht="15.75" customHeight="1">
       <c r="L407" s="3"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="12:12" ht="15.75" customHeight="1">
       <c r="L408" s="3"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="12:12" ht="15.75" customHeight="1">
       <c r="L409" s="3"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="12:12" ht="15.75" customHeight="1">
       <c r="L410" s="3"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="12:12" ht="15.75" customHeight="1">
       <c r="L411" s="3"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="12:12" ht="15.75" customHeight="1">
       <c r="L412" s="3"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="12:12" ht="15.75" customHeight="1">
       <c r="L413" s="3"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="12:12" ht="15.75" customHeight="1">
       <c r="L414" s="3"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="12:12" ht="15.75" customHeight="1">
       <c r="L415" s="3"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="12:12" ht="15.75" customHeight="1">
       <c r="L416" s="3"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="12:12" ht="15.75" customHeight="1">
       <c r="L417" s="3"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="12:12" ht="15.75" customHeight="1">
       <c r="L418" s="3"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="12:12" ht="15.75" customHeight="1">
       <c r="L419" s="3"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="12:12" ht="15.75" customHeight="1">
       <c r="L420" s="3"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="12:12" ht="15.75" customHeight="1">
       <c r="L421" s="3"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="12:12" ht="15.75" customHeight="1">
       <c r="L422" s="3"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="12:12" ht="15.75" customHeight="1">
       <c r="L423" s="3"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="12:12" ht="15.75" customHeight="1">
       <c r="L424" s="3"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="12:12" ht="15.75" customHeight="1">
       <c r="L425" s="3"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="12:12" ht="15.75" customHeight="1">
       <c r="L426" s="3"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="12:12" ht="15.75" customHeight="1">
       <c r="L427" s="3"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="12:12" ht="15.75" customHeight="1">
       <c r="L428" s="3"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="12:12" ht="15.75" customHeight="1">
       <c r="L429" s="3"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="12:12" ht="15.75" customHeight="1">
       <c r="L430" s="3"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="12:12" ht="15.75" customHeight="1">
       <c r="L431" s="3"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="12:12" ht="15.75" customHeight="1">
       <c r="L432" s="3"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="12:12" ht="15.75" customHeight="1">
       <c r="L433" s="3"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="12:12" ht="15.75" customHeight="1">
       <c r="L434" s="3"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="12:12" ht="15.75" customHeight="1">
       <c r="L435" s="3"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="12:12" ht="15.75" customHeight="1">
       <c r="L436" s="3"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="12:12" ht="15.75" customHeight="1">
       <c r="L437" s="3"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="12:12" ht="15.75" customHeight="1">
       <c r="L438" s="3"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="12:12" ht="15.75" customHeight="1">
       <c r="L439" s="3"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="12:12" ht="15.75" customHeight="1">
       <c r="L440" s="3"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="12:12" ht="15.75" customHeight="1">
       <c r="L441" s="3"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="12:12" ht="15.75" customHeight="1">
       <c r="L442" s="3"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="12:12" ht="15.75" customHeight="1">
       <c r="L443" s="3"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="12:12" ht="15.75" customHeight="1">
       <c r="L444" s="3"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="12:12" ht="15.75" customHeight="1">
       <c r="L445" s="3"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="12:12" ht="15.75" customHeight="1">
       <c r="L446" s="3"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="12:12" ht="15.75" customHeight="1">
       <c r="L447" s="3"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="12:12" ht="15.75" customHeight="1">
       <c r="L448" s="3"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="12:12" ht="15.75" customHeight="1">
       <c r="L449" s="3"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="12:12" ht="15.75" customHeight="1">
       <c r="L450" s="3"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="12:12" ht="15.75" customHeight="1">
       <c r="L451" s="3"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="12:12" ht="15.75" customHeight="1">
       <c r="L452" s="3"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="12:12" ht="15.75" customHeight="1">
       <c r="L453" s="3"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="12:12" ht="15.75" customHeight="1">
       <c r="L454" s="3"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="12:12" ht="15.75" customHeight="1">
       <c r="L455" s="3"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="12:12" ht="15.75" customHeight="1">
       <c r="L456" s="3"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="12:12" ht="15.75" customHeight="1">
       <c r="L457" s="3"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="12:12" ht="15.75" customHeight="1">
       <c r="L458" s="3"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="12:12" ht="15.75" customHeight="1">
       <c r="L459" s="3"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="12:12" ht="15.75" customHeight="1">
       <c r="L460" s="3"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="12:12" ht="15.75" customHeight="1">
       <c r="L461" s="3"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="12:12" ht="15.75" customHeight="1">
       <c r="L462" s="3"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="12:12" ht="15.75" customHeight="1">
       <c r="L463" s="3"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="12:12" ht="15.75" customHeight="1">
       <c r="L464" s="3"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="12:12" ht="15.75" customHeight="1">
       <c r="L465" s="3"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="12:12" ht="15.75" customHeight="1">
       <c r="L466" s="3"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="12:12" ht="15.75" customHeight="1">
       <c r="L467" s="3"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="12:12" ht="15.75" customHeight="1">
       <c r="L468" s="3"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="12:12" ht="15.75" customHeight="1">
       <c r="L469" s="3"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="12:12" ht="15.75" customHeight="1">
       <c r="L470" s="3"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="12:12" ht="15.75" customHeight="1">
       <c r="L471" s="3"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="12:12" ht="15.75" customHeight="1">
       <c r="L472" s="3"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="12:12" ht="15.75" customHeight="1">
       <c r="L473" s="3"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="12:12" ht="15.75" customHeight="1">
       <c r="L474" s="3"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="12:12" ht="15.75" customHeight="1">
       <c r="L475" s="3"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="12:12" ht="15.75" customHeight="1">
       <c r="L476" s="3"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="12:12" ht="15.75" customHeight="1">
       <c r="L477" s="3"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="12:12" ht="15.75" customHeight="1">
       <c r="L478" s="3"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="12:12" ht="15.75" customHeight="1">
       <c r="L479" s="3"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="12:12" ht="15.75" customHeight="1">
       <c r="L480" s="3"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="12:12" ht="15.75" customHeight="1">
       <c r="L481" s="3"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="12:12" ht="15.75" customHeight="1">
       <c r="L482" s="3"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="12:12" ht="15.75" customHeight="1">
       <c r="L483" s="3"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="12:12" ht="15.75" customHeight="1">
       <c r="L484" s="3"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="12:12" ht="15.75" customHeight="1">
       <c r="L485" s="3"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="12:12" ht="15.75" customHeight="1">
       <c r="L486" s="3"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="12:12" ht="15.75" customHeight="1">
       <c r="L487" s="3"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="12:12" ht="15.75" customHeight="1">
       <c r="L488" s="3"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="12:12" ht="15.75" customHeight="1">
       <c r="L489" s="3"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="12:12" ht="15.75" customHeight="1">
       <c r="L490" s="3"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="12:12" ht="15.75" customHeight="1">
       <c r="L491" s="3"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="12:12" ht="15.75" customHeight="1">
       <c r="L492" s="3"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="12:12" ht="15.75" customHeight="1">
       <c r="L493" s="3"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="12:12" ht="15.75" customHeight="1">
       <c r="L494" s="3"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="12:12" ht="15.75" customHeight="1">
       <c r="L495" s="3"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="12:12" ht="15.75" customHeight="1">
       <c r="L496" s="3"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="12:12" ht="15.75" customHeight="1">
       <c r="L497" s="3"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="12:12" ht="15.75" customHeight="1">
       <c r="L498" s="3"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="12:12" ht="15.75" customHeight="1">
       <c r="L499" s="3"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="12:12" ht="15.75" customHeight="1">
       <c r="L500" s="3"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="12:12" ht="15.75" customHeight="1">
       <c r="L501" s="3"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="12:12" ht="15.75" customHeight="1">
       <c r="L502" s="3"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="12:12" ht="15.75" customHeight="1">
       <c r="L503" s="3"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="12:12" ht="15.75" customHeight="1">
       <c r="L504" s="3"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="12:12" ht="15.75" customHeight="1">
       <c r="L505" s="3"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="12:12" ht="15.75" customHeight="1">
       <c r="L506" s="3"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="12:12" ht="15.75" customHeight="1">
       <c r="L507" s="3"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="12:12" ht="15.75" customHeight="1">
       <c r="L508" s="3"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="12:12" ht="15.75" customHeight="1">
       <c r="L509" s="3"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="12:12" ht="15.75" customHeight="1">
       <c r="L510" s="3"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="12:12" ht="15.75" customHeight="1">
       <c r="L511" s="3"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="12:12" ht="15.75" customHeight="1">
       <c r="L512" s="3"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="12:12" ht="15.75" customHeight="1">
       <c r="L513" s="3"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="12:12" ht="15.75" customHeight="1">
       <c r="L514" s="3"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="12:12" ht="15.75" customHeight="1">
       <c r="L515" s="3"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="12:12" ht="15.75" customHeight="1">
       <c r="L516" s="3"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="12:12" ht="15.75" customHeight="1">
       <c r="L517" s="3"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="12:12" ht="15.75" customHeight="1">
       <c r="L518" s="3"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="12:12" ht="15.75" customHeight="1">
       <c r="L519" s="3"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="12:12" ht="15.75" customHeight="1">
       <c r="L520" s="3"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="12:12" ht="15.75" customHeight="1">
       <c r="L521" s="3"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="12:12" ht="15.75" customHeight="1">
       <c r="L522" s="3"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="12:12" ht="15.75" customHeight="1">
       <c r="L523" s="3"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="12:12" ht="15.75" customHeight="1">
       <c r="L524" s="3"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="12:12" ht="15.75" customHeight="1">
       <c r="L525" s="3"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="12:12" ht="15.75" customHeight="1">
       <c r="L526" s="3"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="12:12" ht="15.75" customHeight="1">
       <c r="L527" s="3"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="12:12" ht="15.75" customHeight="1">
       <c r="L528" s="3"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="12:12" ht="15.75" customHeight="1">
       <c r="L529" s="3"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="12:12" ht="15.75" customHeight="1">
       <c r="L530" s="3"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="12:12" ht="15.75" customHeight="1">
       <c r="L531" s="3"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="12:12" ht="15.75" customHeight="1">
       <c r="L532" s="3"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="12:12" ht="15.75" customHeight="1">
       <c r="L533" s="3"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="12:12" ht="15.75" customHeight="1">
       <c r="L534" s="3"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="12:12" ht="15.75" customHeight="1">
       <c r="L535" s="3"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="12:12" ht="15.75" customHeight="1">
       <c r="L536" s="3"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="12:12" ht="15.75" customHeight="1">
       <c r="L537" s="3"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="12:12" ht="15.75" customHeight="1">
       <c r="L538" s="3"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="12:12" ht="15.75" customHeight="1">
       <c r="L539" s="3"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="12:12" ht="15.75" customHeight="1">
       <c r="L540" s="3"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="12:12" ht="15.75" customHeight="1">
       <c r="L541" s="3"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="12:12" ht="15.75" customHeight="1">
       <c r="L542" s="3"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="12:12" ht="15.75" customHeight="1">
       <c r="L543" s="3"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="12:12" ht="15.75" customHeight="1">
       <c r="L544" s="3"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="12:12" ht="15.75" customHeight="1">
       <c r="L545" s="3"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="12:12" ht="15.75" customHeight="1">
       <c r="L546" s="3"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="12:12" ht="15.75" customHeight="1">
       <c r="L547" s="3"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="12:12" ht="15.75" customHeight="1">
       <c r="L548" s="3"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="12:12" ht="15.75" customHeight="1">
       <c r="L549" s="3"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="12:12" ht="15.75" customHeight="1">
       <c r="L550" s="3"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="12:12" ht="15.75" customHeight="1">
       <c r="L551" s="3"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="12:12" ht="15.75" customHeight="1">
       <c r="L552" s="3"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="12:12" ht="15.75" customHeight="1">
       <c r="L553" s="3"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="12:12" ht="15.75" customHeight="1">
       <c r="L554" s="3"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="12:12" ht="15.75" customHeight="1">
       <c r="L555" s="3"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="12:12" ht="15.75" customHeight="1">
       <c r="L556" s="3"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="12:12" ht="15.75" customHeight="1">
       <c r="L557" s="3"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="12:12" ht="15.75" customHeight="1">
       <c r="L558" s="3"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="12:12" ht="15.75" customHeight="1">
       <c r="L559" s="3"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="12:12" ht="15.75" customHeight="1">
       <c r="L560" s="3"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="12:12" ht="15.75" customHeight="1">
       <c r="L561" s="3"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="12:12" ht="15.75" customHeight="1">
       <c r="L562" s="3"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="12:12" ht="15.75" customHeight="1">
       <c r="L563" s="3"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="12:12" ht="15.75" customHeight="1">
       <c r="L564" s="3"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="12:12" ht="15.75" customHeight="1">
       <c r="L565" s="3"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="12:12" ht="15.75" customHeight="1">
       <c r="L566" s="3"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="12:12" ht="15.75" customHeight="1">
       <c r="L567" s="3"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="12:12" ht="15.75" customHeight="1">
       <c r="L568" s="3"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="12:12" ht="15.75" customHeight="1">
       <c r="L569" s="3"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="12:12" ht="15.75" customHeight="1">
       <c r="L570" s="3"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="12:12" ht="15.75" customHeight="1">
       <c r="L571" s="3"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="12:12" ht="15.75" customHeight="1">
       <c r="L572" s="3"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="12:12" ht="15.75" customHeight="1">
       <c r="L573" s="3"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="12:12" ht="15.75" customHeight="1">
       <c r="L574" s="3"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="12:12" ht="15.75" customHeight="1">
       <c r="L575" s="3"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="12:12" ht="15.75" customHeight="1">
       <c r="L576" s="3"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="12:12" ht="15.75" customHeight="1">
       <c r="L577" s="3"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="12:12" ht="15.75" customHeight="1">
       <c r="L578" s="3"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="12:12" ht="15.75" customHeight="1">
       <c r="L579" s="3"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="12:12" ht="15.75" customHeight="1">
       <c r="L580" s="3"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="12:12" ht="15.75" customHeight="1">
       <c r="L581" s="3"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="12:12" ht="15.75" customHeight="1">
       <c r="L582" s="3"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="12:12" ht="15.75" customHeight="1">
       <c r="L583" s="3"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="12:12" ht="15.75" customHeight="1">
       <c r="L584" s="3"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="12:12" ht="15.75" customHeight="1">
       <c r="L585" s="3"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="12:12" ht="15.75" customHeight="1">
       <c r="L586" s="3"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="12:12" ht="15.75" customHeight="1">
       <c r="L587" s="3"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="12:12" ht="15.75" customHeight="1">
       <c r="L588" s="3"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="12:12" ht="15.75" customHeight="1">
       <c r="L589" s="3"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="12:12" ht="15.75" customHeight="1">
       <c r="L590" s="3"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="12:12" ht="15.75" customHeight="1">
       <c r="L591" s="3"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="12:12" ht="15.75" customHeight="1">
       <c r="L592" s="3"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="12:12" ht="15.75" customHeight="1">
       <c r="L593" s="3"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="12:12" ht="15.75" customHeight="1">
       <c r="L594" s="3"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="12:12" ht="15.75" customHeight="1">
       <c r="L595" s="3"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="12:12" ht="15.75" customHeight="1">
       <c r="L596" s="3"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="12:12" ht="15.75" customHeight="1">
       <c r="L597" s="3"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="12:12" ht="15.75" customHeight="1">
       <c r="L598" s="3"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="12:12" ht="15.75" customHeight="1">
       <c r="L599" s="3"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="12:12" ht="15.75" customHeight="1">
       <c r="L600" s="3"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="12:12" ht="15.75" customHeight="1">
       <c r="L601" s="3"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="12:12" ht="15.75" customHeight="1">
       <c r="L602" s="3"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="12:12" ht="15.75" customHeight="1">
       <c r="L603" s="3"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="12:12" ht="15.75" customHeight="1">
       <c r="L604" s="3"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="12:12" ht="15.75" customHeight="1">
       <c r="L605" s="3"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="12:12" ht="15.75" customHeight="1">
       <c r="L606" s="3"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="12:12" ht="15.75" customHeight="1">
       <c r="L607" s="3"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="12:12" ht="15.75" customHeight="1">
       <c r="L608" s="3"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="12:12" ht="15.75" customHeight="1">
       <c r="L609" s="3"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="12:12" ht="15.75" customHeight="1">
       <c r="L610" s="3"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="12:12" ht="15.75" customHeight="1">
       <c r="L611" s="3"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="12:12" ht="15.75" customHeight="1">
       <c r="L612" s="3"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="12:12" ht="15.75" customHeight="1">
       <c r="L613" s="3"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="12:12" ht="15.75" customHeight="1">
       <c r="L614" s="3"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="12:12" ht="15.75" customHeight="1">
       <c r="L615" s="3"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="12:12" ht="15.75" customHeight="1">
       <c r="L616" s="3"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="12:12" ht="15.75" customHeight="1">
       <c r="L617" s="3"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="12:12" ht="15.75" customHeight="1">
       <c r="L618" s="3"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="12:12" ht="15.75" customHeight="1">
       <c r="L619" s="3"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="12:12" ht="15.75" customHeight="1">
       <c r="L620" s="3"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="12:12" ht="15.75" customHeight="1">
       <c r="L621" s="3"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="12:12" ht="15.75" customHeight="1">
       <c r="L622" s="3"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="12:12" ht="15.75" customHeight="1">
       <c r="L623" s="3"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="12:12" ht="15.75" customHeight="1">
       <c r="L624" s="3"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="12:12" ht="15.75" customHeight="1">
       <c r="L625" s="3"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="12:12" ht="15.75" customHeight="1">
       <c r="L626" s="3"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="12:12" ht="15.75" customHeight="1">
       <c r="L627" s="3"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="12:12" ht="15.75" customHeight="1">
       <c r="L628" s="3"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="12:12" ht="15.75" customHeight="1">
       <c r="L629" s="3"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="12:12" ht="15.75" customHeight="1">
       <c r="L630" s="3"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="12:12" ht="15.75" customHeight="1">
       <c r="L631" s="3"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="12:12" ht="15.75" customHeight="1">
       <c r="L632" s="3"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="12:12" ht="15.75" customHeight="1">
       <c r="L633" s="3"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="12:12" ht="15.75" customHeight="1">
       <c r="L634" s="3"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="12:12" ht="15.75" customHeight="1">
       <c r="L635" s="3"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="12:12" ht="15.75" customHeight="1">
       <c r="L636" s="3"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="12:12" ht="15.75" customHeight="1">
       <c r="L637" s="3"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="12:12" ht="15.75" customHeight="1">
       <c r="L638" s="3"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="12:12" ht="15.75" customHeight="1">
       <c r="L639" s="3"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="12:12" ht="15.75" customHeight="1">
       <c r="L640" s="3"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="12:12" ht="15.75" customHeight="1">
       <c r="L641" s="3"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="12:12" ht="15.75" customHeight="1">
       <c r="L642" s="3"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="12:12" ht="15.75" customHeight="1">
       <c r="L643" s="3"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="12:12" ht="15.75" customHeight="1">
       <c r="L644" s="3"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="12:12" ht="15.75" customHeight="1">
       <c r="L645" s="3"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="12:12" ht="15.75" customHeight="1">
       <c r="L646" s="3"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="12:12" ht="15.75" customHeight="1">
       <c r="L647" s="3"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="12:12" ht="15.75" customHeight="1">
       <c r="L648" s="3"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="12:12" ht="15.75" customHeight="1">
       <c r="L649" s="3"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="12:12" ht="15.75" customHeight="1">
       <c r="L650" s="3"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="12:12" ht="15.75" customHeight="1">
       <c r="L651" s="3"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="12:12" ht="15.75" customHeight="1">
       <c r="L652" s="3"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="12:12" ht="15.75" customHeight="1">
       <c r="L653" s="3"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="12:12" ht="15.75" customHeight="1">
       <c r="L654" s="3"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="12:12" ht="15.75" customHeight="1">
       <c r="L655" s="3"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="12:12" ht="15.75" customHeight="1">
       <c r="L656" s="3"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="12:12" ht="15.75" customHeight="1">
       <c r="L657" s="3"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="12:12" ht="15.75" customHeight="1">
       <c r="L658" s="3"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="12:12" ht="15.75" customHeight="1">
       <c r="L659" s="3"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="12:12" ht="15.75" customHeight="1">
       <c r="L660" s="3"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="12:12" ht="15.75" customHeight="1">
       <c r="L661" s="3"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="12:12" ht="15.75" customHeight="1">
       <c r="L662" s="3"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="12:12" ht="15.75" customHeight="1">
       <c r="L663" s="3"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="12:12" ht="15.75" customHeight="1">
       <c r="L664" s="3"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="12:12" ht="15.75" customHeight="1">
       <c r="L665" s="3"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="12:12" ht="15.75" customHeight="1">
       <c r="L666" s="3"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="12:12" ht="15.75" customHeight="1">
       <c r="L667" s="3"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="12:12" ht="15.75" customHeight="1">
       <c r="L668" s="3"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="12:12" ht="15.75" customHeight="1">
       <c r="L669" s="3"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="12:12" ht="15.75" customHeight="1">
       <c r="L670" s="3"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="12:12" ht="15.75" customHeight="1">
       <c r="L671" s="3"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="12:12" ht="15.75" customHeight="1">
       <c r="L672" s="3"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="12:12" ht="15.75" customHeight="1">
       <c r="L673" s="3"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="12:12" ht="15.75" customHeight="1">
       <c r="L674" s="3"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="12:12" ht="15.75" customHeight="1">
       <c r="L675" s="3"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="12:12" ht="15.75" customHeight="1">
       <c r="L676" s="3"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="12:12" ht="15.75" customHeight="1">
       <c r="L677" s="3"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="12:12" ht="15.75" customHeight="1">
       <c r="L678" s="3"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="12:12" ht="15.75" customHeight="1">
       <c r="L679" s="3"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="12:12" ht="15.75" customHeight="1">
       <c r="L680" s="3"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="12:12" ht="15.75" customHeight="1">
       <c r="L681" s="3"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="12:12" ht="15.75" customHeight="1">
       <c r="L682" s="3"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="12:12" ht="15.75" customHeight="1">
       <c r="L683" s="3"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="12:12" ht="15.75" customHeight="1">
       <c r="L684" s="3"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="12:12" ht="15.75" customHeight="1">
       <c r="L685" s="3"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="12:12" ht="15.75" customHeight="1">
       <c r="L686" s="3"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="12:12" ht="15.75" customHeight="1">
       <c r="L687" s="3"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="12:12" ht="15.75" customHeight="1">
       <c r="L688" s="3"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="12:12" ht="15.75" customHeight="1">
       <c r="L689" s="3"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="12:12" ht="15.75" customHeight="1">
       <c r="L690" s="3"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="12:12" ht="15.75" customHeight="1">
       <c r="L691" s="3"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="12:12" ht="15.75" customHeight="1">
       <c r="L692" s="3"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="12:12" ht="15.75" customHeight="1">
       <c r="L693" s="3"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="12:12" ht="15.75" customHeight="1">
       <c r="L694" s="3"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="12:12" ht="15.75" customHeight="1">
       <c r="L695" s="3"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="12:12" ht="15.75" customHeight="1">
       <c r="L696" s="3"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="12:12" ht="15.75" customHeight="1">
       <c r="L697" s="3"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="12:12" ht="15.75" customHeight="1">
       <c r="L698" s="3"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="12:12" ht="15.75" customHeight="1">
       <c r="L699" s="3"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="12:12" ht="15.75" customHeight="1">
       <c r="L700" s="3"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="12:12" ht="15.75" customHeight="1">
       <c r="L701" s="3"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="12:12" ht="15.75" customHeight="1">
       <c r="L702" s="3"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="12:12" ht="15.75" customHeight="1">
       <c r="L703" s="3"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="12:12" ht="15.75" customHeight="1">
       <c r="L704" s="3"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="12:12" ht="15.75" customHeight="1">
       <c r="L705" s="3"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="12:12" ht="15.75" customHeight="1">
       <c r="L706" s="3"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="12:12" ht="15.75" customHeight="1">
       <c r="L707" s="3"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="12:12" ht="15.75" customHeight="1">
       <c r="L708" s="3"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="12:12" ht="15.75" customHeight="1">
       <c r="L709" s="3"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="12:12" ht="15.75" customHeight="1">
       <c r="L710" s="3"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="12:12" ht="15.75" customHeight="1">
       <c r="L711" s="3"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="12:12" ht="15.75" customHeight="1">
       <c r="L712" s="3"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="12:12" ht="15.75" customHeight="1">
       <c r="L713" s="3"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="12:12" ht="15.75" customHeight="1">
       <c r="L714" s="3"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="12:12" ht="15.75" customHeight="1">
       <c r="L715" s="3"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="12:12" ht="15.75" customHeight="1">
       <c r="L716" s="3"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="12:12" ht="15.75" customHeight="1">
       <c r="L717" s="3"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="12:12" ht="15.75" customHeight="1">
       <c r="L718" s="3"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="12:12" ht="15.75" customHeight="1">
       <c r="L719" s="3"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="12:12" ht="15.75" customHeight="1">
       <c r="L720" s="3"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="12:12" ht="15.75" customHeight="1">
       <c r="L721" s="3"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="12:12" ht="15.75" customHeight="1">
       <c r="L722" s="3"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="12:12" ht="15.75" customHeight="1">
       <c r="L723" s="3"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="12:12" ht="15.75" customHeight="1">
       <c r="L724" s="3"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="12:12" ht="15.75" customHeight="1">
       <c r="L725" s="3"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="12:12" ht="15.75" customHeight="1">
       <c r="L726" s="3"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="12:12" ht="15.75" customHeight="1">
       <c r="L727" s="3"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="12:12" ht="15.75" customHeight="1">
       <c r="L728" s="3"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="12:12" ht="15.75" customHeight="1">
       <c r="L729" s="3"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="12:12" ht="15.75" customHeight="1">
       <c r="L730" s="3"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="12:12" ht="15.75" customHeight="1">
       <c r="L731" s="3"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="12:12" ht="15.75" customHeight="1">
       <c r="L732" s="3"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="12:12" ht="15.75" customHeight="1">
       <c r="L733" s="3"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="12:12" ht="15.75" customHeight="1">
       <c r="L734" s="3"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="12:12" ht="15.75" customHeight="1">
       <c r="L735" s="3"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="12:12" ht="15.75" customHeight="1">
       <c r="L736" s="3"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="12:12" ht="15.75" customHeight="1">
       <c r="L737" s="3"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="12:12" ht="15.75" customHeight="1">
       <c r="L738" s="3"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="12:12" ht="15.75" customHeight="1">
       <c r="L739" s="3"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="12:12" ht="15.75" customHeight="1">
       <c r="L740" s="3"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="12:12" ht="15.75" customHeight="1">
       <c r="L741" s="3"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="12:12" ht="15.75" customHeight="1">
       <c r="L742" s="3"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="12:12" ht="15.75" customHeight="1">
       <c r="L743" s="3"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="12:12" ht="15.75" customHeight="1">
       <c r="L744" s="3"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="12:12" ht="15.75" customHeight="1">
       <c r="L745" s="3"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="12:12" ht="15.75" customHeight="1">
       <c r="L746" s="3"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="12:12" ht="15.75" customHeight="1">
       <c r="L747" s="3"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="12:12" ht="15.75" customHeight="1">
       <c r="L748" s="3"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="12:12" ht="15.75" customHeight="1">
       <c r="L749" s="3"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="12:12" ht="15.75" customHeight="1">
       <c r="L750" s="3"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="12:12" ht="15.75" customHeight="1">
       <c r="L751" s="3"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="12:12" ht="15.75" customHeight="1">
       <c r="L752" s="3"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="12:12" ht="15.75" customHeight="1">
       <c r="L753" s="3"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="12:12" ht="15.75" customHeight="1">
       <c r="L754" s="3"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="12:12" ht="15.75" customHeight="1">
       <c r="L755" s="3"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="12:12" ht="15.75" customHeight="1">
       <c r="L756" s="3"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="12:12" ht="15.75" customHeight="1">
       <c r="L757" s="3"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="12:12" ht="15.75" customHeight="1">
       <c r="L758" s="3"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="12:12" ht="15.75" customHeight="1">
       <c r="L759" s="3"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="12:12" ht="15.75" customHeight="1">
       <c r="L760" s="3"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="12:12" ht="15.75" customHeight="1">
       <c r="L761" s="3"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="12:12" ht="15.75" customHeight="1">
       <c r="L762" s="3"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="12:12" ht="15.75" customHeight="1">
       <c r="L763" s="3"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="12:12" ht="15.75" customHeight="1">
       <c r="L764" s="3"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="12:12" ht="15.75" customHeight="1">
       <c r="L765" s="3"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="12:12" ht="15.75" customHeight="1">
       <c r="L766" s="3"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="12:12" ht="15.75" customHeight="1">
       <c r="L767" s="3"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="12:12" ht="15.75" customHeight="1">
       <c r="L768" s="3"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="12:12" ht="15.75" customHeight="1">
       <c r="L769" s="3"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="12:12" ht="15.75" customHeight="1">
       <c r="L770" s="3"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="12:12" ht="15.75" customHeight="1">
       <c r="L771" s="3"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="12:12" ht="15.75" customHeight="1">
       <c r="L772" s="3"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="12:12" ht="15.75" customHeight="1">
       <c r="L773" s="3"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="12:12" ht="15.75" customHeight="1">
       <c r="L774" s="3"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="12:12" ht="15.75" customHeight="1">
       <c r="L775" s="3"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="12:12" ht="15.75" customHeight="1">
       <c r="L776" s="3"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="12:12" ht="15.75" customHeight="1">
       <c r="L777" s="3"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="12:12" ht="15.75" customHeight="1">
       <c r="L778" s="3"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="12:12" ht="15.75" customHeight="1">
       <c r="L779" s="3"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="12:12" ht="15.75" customHeight="1">
       <c r="L780" s="3"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="12:12" ht="15.75" customHeight="1">
       <c r="L781" s="3"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="12:12" ht="15.75" customHeight="1">
       <c r="L782" s="3"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="12:12" ht="15.75" customHeight="1">
       <c r="L783" s="3"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="12:12" ht="15.75" customHeight="1">
       <c r="L784" s="3"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="12:12" ht="15.75" customHeight="1">
       <c r="L785" s="3"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="12:12" ht="15.75" customHeight="1">
       <c r="L786" s="3"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="12:12" ht="15.75" customHeight="1">
       <c r="L787" s="3"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="12:12" ht="15.75" customHeight="1">
       <c r="L788" s="3"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="12:12" ht="15.75" customHeight="1">
       <c r="L789" s="3"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="12:12" ht="15.75" customHeight="1">
       <c r="L790" s="3"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="12:12" ht="15.75" customHeight="1">
       <c r="L791" s="3"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="12:12" ht="15.75" customHeight="1">
       <c r="L792" s="3"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="12:12" ht="15.75" customHeight="1">
       <c r="L793" s="3"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="12:12" ht="15.75" customHeight="1">
       <c r="L794" s="3"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="12:12" ht="15.75" customHeight="1">
       <c r="L795" s="3"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="12:12" ht="15.75" customHeight="1">
       <c r="L796" s="3"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="12:12" ht="15.75" customHeight="1">
       <c r="L797" s="3"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="12:12" ht="15.75" customHeight="1">
       <c r="L798" s="3"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="12:12" ht="15.75" customHeight="1">
       <c r="L799" s="3"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="12:12" ht="15.75" customHeight="1">
       <c r="L800" s="3"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="12:12" ht="15.75" customHeight="1">
       <c r="L801" s="3"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="12:12" ht="15.75" customHeight="1">
       <c r="L802" s="3"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="12:12" ht="15.75" customHeight="1">
       <c r="L803" s="3"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="12:12" ht="15.75" customHeight="1">
       <c r="L804" s="3"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="12:12" ht="15.75" customHeight="1">
       <c r="L805" s="3"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="12:12" ht="15.75" customHeight="1">
       <c r="L806" s="3"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="12:12" ht="15.75" customHeight="1">
       <c r="L807" s="3"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="12:12" ht="15.75" customHeight="1">
       <c r="L808" s="3"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="12:12" ht="15.75" customHeight="1">
       <c r="L809" s="3"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="12:12" ht="15.75" customHeight="1">
       <c r="L810" s="3"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="12:12" ht="15.75" customHeight="1">
       <c r="L811" s="3"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="12:12" ht="15.75" customHeight="1">
       <c r="L812" s="3"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="12:12" ht="15.75" customHeight="1">
       <c r="L813" s="3"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="12:12" ht="15.75" customHeight="1">
       <c r="L814" s="3"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="12:12" ht="15.75" customHeight="1">
       <c r="L815" s="3"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="12:12" ht="15.75" customHeight="1">
       <c r="L816" s="3"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="12:12" ht="15.75" customHeight="1">
       <c r="L817" s="3"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="12:12" ht="15.75" customHeight="1">
       <c r="L818" s="3"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="12:12" ht="15.75" customHeight="1">
       <c r="L819" s="3"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="12:12" ht="15.75" customHeight="1">
       <c r="L820" s="3"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="12:12" ht="15.75" customHeight="1">
       <c r="L821" s="3"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="12:12" ht="15.75" customHeight="1">
       <c r="L822" s="3"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="12:12" ht="15.75" customHeight="1">
       <c r="L823" s="3"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="12:12" ht="15.75" customHeight="1">
       <c r="L824" s="3"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="12:12" ht="15.75" customHeight="1">
       <c r="L825" s="3"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="12:12" ht="15.75" customHeight="1">
       <c r="L826" s="3"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="12:12" ht="15.75" customHeight="1">
       <c r="L827" s="3"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="12:12" ht="15.75" customHeight="1">
       <c r="L828" s="3"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="12:12" ht="15.75" customHeight="1">
       <c r="L829" s="3"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="12:12" ht="15.75" customHeight="1">
       <c r="L830" s="3"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="12:12" ht="15.75" customHeight="1">
       <c r="L831" s="3"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="12:12" ht="15.75" customHeight="1">
       <c r="L832" s="3"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="12:12" ht="15.75" customHeight="1">
       <c r="L833" s="3"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="12:12" ht="15.75" customHeight="1">
       <c r="L834" s="3"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="12:12" ht="15.75" customHeight="1">
       <c r="L835" s="3"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="12:12" ht="15.75" customHeight="1">
       <c r="L836" s="3"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="12:12" ht="15.75" customHeight="1">
       <c r="L837" s="3"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="12:12" ht="15.75" customHeight="1">
       <c r="L838" s="3"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="12:12" ht="15.75" customHeight="1">
       <c r="L839" s="3"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="12:12" ht="15.75" customHeight="1">
       <c r="L840" s="3"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="12:12" ht="15.75" customHeight="1">
       <c r="L841" s="3"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="12:12" ht="15.75" customHeight="1">
       <c r="L842" s="3"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="12:12" ht="15.75" customHeight="1">
       <c r="L843" s="3"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="12:12" ht="15.75" customHeight="1">
       <c r="L844" s="3"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="12:12" ht="15.75" customHeight="1">
       <c r="L845" s="3"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="12:12" ht="15.75" customHeight="1">
       <c r="L846" s="3"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="12:12" ht="15.75" customHeight="1">
       <c r="L847" s="3"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="12:12" ht="15.75" customHeight="1">
       <c r="L848" s="3"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="12:12" ht="15.75" customHeight="1">
       <c r="L849" s="3"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="12:12" ht="15.75" customHeight="1">
       <c r="L850" s="3"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="12:12" ht="15.75" customHeight="1">
       <c r="L851" s="3"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="12:12" ht="15.75" customHeight="1">
       <c r="L852" s="3"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="12:12" ht="15.75" customHeight="1">
       <c r="L853" s="3"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="12:12" ht="15.75" customHeight="1">
       <c r="L854" s="3"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="12:12" ht="15.75" customHeight="1">
       <c r="L855" s="3"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="12:12" ht="15.75" customHeight="1">
       <c r="L856" s="3"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="12:12" ht="15.75" customHeight="1">
       <c r="L857" s="3"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="12:12" ht="15.75" customHeight="1">
       <c r="L858" s="3"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="12:12" ht="15.75" customHeight="1">
       <c r="L859" s="3"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="12:12" ht="15.75" customHeight="1">
       <c r="L860" s="3"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="12:12" ht="15.75" customHeight="1">
       <c r="L861" s="3"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="12:12" ht="15.75" customHeight="1">
       <c r="L862" s="3"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="12:12" ht="15.75" customHeight="1">
       <c r="L863" s="3"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="12:12" ht="15.75" customHeight="1">
       <c r="L864" s="3"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="12:12" ht="15.75" customHeight="1">
       <c r="L865" s="3"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="12:12" ht="15.75" customHeight="1">
       <c r="L866" s="3"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="12:12" ht="15.75" customHeight="1">
       <c r="L867" s="3"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="12:12" ht="15.75" customHeight="1">
       <c r="L868" s="3"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="12:12" ht="15.75" customHeight="1">
       <c r="L869" s="3"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="12:12" ht="15.75" customHeight="1">
       <c r="L870" s="3"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="12:12" ht="15.75" customHeight="1">
       <c r="L871" s="3"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="12:12" ht="15.75" customHeight="1">
       <c r="L872" s="3"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="12:12" ht="15.75" customHeight="1">
       <c r="L873" s="3"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="12:12" ht="15.75" customHeight="1">
       <c r="L874" s="3"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="12:12" ht="15.75" customHeight="1">
       <c r="L875" s="3"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="12:12" ht="15.75" customHeight="1">
       <c r="L876" s="3"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="12:12" ht="15.75" customHeight="1">
       <c r="L877" s="3"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="12:12" ht="15.75" customHeight="1">
       <c r="L878" s="3"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="12:12" ht="15.75" customHeight="1">
       <c r="L879" s="3"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="12:12" ht="15.75" customHeight="1">
       <c r="L880" s="3"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="12:12" ht="15.75" customHeight="1">
       <c r="L881" s="3"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="12:12" ht="15.75" customHeight="1">
       <c r="L882" s="3"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="12:12" ht="15.75" customHeight="1">
       <c r="L883" s="3"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="12:12" ht="15.75" customHeight="1">
       <c r="L884" s="3"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="12:12" ht="15.75" customHeight="1">
       <c r="L885" s="3"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="12:12" ht="15.75" customHeight="1">
       <c r="L886" s="3"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="12:12" ht="15.75" customHeight="1">
       <c r="L887" s="3"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="12:12" ht="15.75" customHeight="1">
       <c r="L888" s="3"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="12:12" ht="15.75" customHeight="1">
       <c r="L889" s="3"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="12:12" ht="15.75" customHeight="1">
       <c r="L890" s="3"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="12:12" ht="15.75" customHeight="1">
       <c r="L891" s="3"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="12:12" ht="15.75" customHeight="1">
       <c r="L892" s="3"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="12:12" ht="15.75" customHeight="1">
       <c r="L893" s="3"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="12:12" ht="15.75" customHeight="1">
       <c r="L894" s="3"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="12:12" ht="15.75" customHeight="1">
       <c r="L895" s="3"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="12:12" ht="15.75" customHeight="1">
       <c r="L896" s="3"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="12:12" ht="15.75" customHeight="1">
       <c r="L897" s="3"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="12:12" ht="15.75" customHeight="1">
       <c r="L898" s="3"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="12:12" ht="15.75" customHeight="1">
       <c r="L899" s="3"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="12:12" ht="15.75" customHeight="1">
       <c r="L900" s="3"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="12:12" ht="15.75" customHeight="1">
       <c r="L901" s="3"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="12:12" ht="15.75" customHeight="1">
       <c r="L902" s="3"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="12:12" ht="15.75" customHeight="1">
       <c r="L903" s="3"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="12:12" ht="15.75" customHeight="1">
       <c r="L904" s="3"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="12:12" ht="15.75" customHeight="1">
       <c r="L905" s="3"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="12:12" ht="15.75" customHeight="1">
       <c r="L906" s="3"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="12:12" ht="15.75" customHeight="1">
       <c r="L907" s="3"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="12:12" ht="15.75" customHeight="1">
       <c r="L908" s="3"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="12:12" ht="15.75" customHeight="1">
       <c r="L909" s="3"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="12:12" ht="15.75" customHeight="1">
       <c r="L910" s="3"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="12:12" ht="15.75" customHeight="1">
       <c r="L911" s="3"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="12:12" ht="15.75" customHeight="1">
       <c r="L912" s="3"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="12:12" ht="15.75" customHeight="1">
       <c r="L913" s="3"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="12:12" ht="15.75" customHeight="1">
       <c r="L914" s="3"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="12:12" ht="15.75" customHeight="1">
       <c r="L915" s="3"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="12:12" ht="15.75" customHeight="1">
       <c r="L916" s="3"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="12:12" ht="15.75" customHeight="1">
       <c r="L917" s="3"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="12:12" ht="15.75" customHeight="1">
       <c r="L918" s="3"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="12:12" ht="15.75" customHeight="1">
       <c r="L919" s="3"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="12:12" ht="15.75" customHeight="1">
       <c r="L920" s="3"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="12:12" ht="15.75" customHeight="1">
       <c r="L921" s="3"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="12:12" ht="15.75" customHeight="1">
       <c r="L922" s="3"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="12:12" ht="15.75" customHeight="1">
       <c r="L923" s="3"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="12:12" ht="15.75" customHeight="1">
       <c r="L924" s="3"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="12:12" ht="15.75" customHeight="1">
       <c r="L925" s="3"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="12:12" ht="15.75" customHeight="1">
       <c r="L926" s="3"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="12:12" ht="15.75" customHeight="1">
       <c r="L927" s="3"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="12:12" ht="15.75" customHeight="1">
       <c r="L928" s="3"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="12:12" ht="15.75" customHeight="1">
       <c r="L929" s="3"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="12:12" ht="15.75" customHeight="1">
       <c r="L930" s="3"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="12:12" ht="15.75" customHeight="1">
       <c r="L931" s="3"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="12:12" ht="15.75" customHeight="1">
       <c r="L932" s="3"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="12:12" ht="15.75" customHeight="1">
       <c r="L933" s="3"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="12:12" ht="15.75" customHeight="1">
       <c r="L934" s="3"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="12:12" ht="15.75" customHeight="1">
       <c r="L935" s="3"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="12:12" ht="15.75" customHeight="1">
       <c r="L936" s="3"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="12:12" ht="15.75" customHeight="1">
       <c r="L937" s="3"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="12:12" ht="15.75" customHeight="1">
       <c r="L938" s="3"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="12:12" ht="15.75" customHeight="1">
       <c r="L939" s="3"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="12:12" ht="15.75" customHeight="1">
       <c r="L940" s="3"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="12:12" ht="15.75" customHeight="1">
       <c r="L941" s="3"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="12:12" ht="15.75" customHeight="1">
       <c r="L942" s="3"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="12:12" ht="15.75" customHeight="1">
       <c r="L943" s="3"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="12:12" ht="15.75" customHeight="1">
       <c r="L944" s="3"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="12:12" ht="15.75" customHeight="1">
       <c r="L945" s="3"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="12:12" ht="15.75" customHeight="1">
       <c r="L946" s="3"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="12:12" ht="15.75" customHeight="1">
       <c r="L947" s="3"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="12:12" ht="15.75" customHeight="1">
       <c r="L948" s="3"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="12:12" ht="15.75" customHeight="1">
       <c r="L949" s="3"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="12:12" ht="15.75" customHeight="1">
       <c r="L950" s="3"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="12:12" ht="15.75" customHeight="1">
       <c r="L951" s="3"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="12:12" ht="15.75" customHeight="1">
       <c r="L952" s="3"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="12:12" ht="15.75" customHeight="1">
       <c r="L953" s="3"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="12:12" ht="15.75" customHeight="1">
       <c r="L954" s="3"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="12:12" ht="15.75" customHeight="1">
       <c r="L955" s="3"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="12:12" ht="15.75" customHeight="1">
       <c r="L956" s="3"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="12:12" ht="15.75" customHeight="1">
       <c r="L957" s="3"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="12:12" ht="15.75" customHeight="1">
       <c r="L958" s="3"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="12:12" ht="15.75" customHeight="1">
       <c r="L959" s="3"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="12:12" ht="15.75" customHeight="1">
       <c r="L960" s="3"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="12:12" ht="15.75" customHeight="1">
       <c r="L961" s="3"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="12:12" ht="15.75" customHeight="1">
       <c r="L962" s="3"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="12:12" ht="15.75" customHeight="1">
       <c r="L963" s="3"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="12:12" ht="15.75" customHeight="1">
       <c r="L964" s="3"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="12:12" ht="15.75" customHeight="1">
       <c r="L965" s="3"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="12:12" ht="15.75" customHeight="1">
       <c r="L966" s="3"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="12:12" ht="15.75" customHeight="1">
       <c r="L967" s="3"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="12:12" ht="15.75" customHeight="1">
       <c r="L968" s="3"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="12:12" ht="15.75" customHeight="1">
       <c r="L969" s="3"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="12:12" ht="15.75" customHeight="1">
       <c r="L970" s="3"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="12:12" ht="15.75" customHeight="1">
       <c r="L971" s="3"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="12:12" ht="15.75" customHeight="1">
       <c r="L972" s="3"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="12:12" ht="15.75" customHeight="1">
       <c r="L973" s="3"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="12:12" ht="15.75" customHeight="1">
       <c r="L974" s="3"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="12:12" ht="15.75" customHeight="1">
       <c r="L975" s="3"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="12:12" ht="15.75" customHeight="1">
       <c r="L976" s="3"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="12:12" ht="15.75" customHeight="1">
       <c r="L977" s="3"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="12:12" ht="15.75" customHeight="1">
       <c r="L978" s="3"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="12:12" ht="15.75" customHeight="1">
       <c r="L979" s="3"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="12:12" ht="15.75" customHeight="1">
       <c r="L980" s="3"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="12:12" ht="15.75" customHeight="1">
       <c r="L981" s="3"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="12:12" ht="15.75" customHeight="1">
       <c r="L982" s="3"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="12:12" ht="15.75" customHeight="1">
       <c r="L983" s="3"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="12:12" ht="15.75" customHeight="1">
       <c r="L984" s="3"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="12:12" ht="15.75" customHeight="1">
       <c r="L985" s="3"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="12:12" ht="15.75" customHeight="1">
       <c r="L986" s="3"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="12:12" ht="15.75" customHeight="1">
       <c r="L987" s="3"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="12:12" ht="15.75" customHeight="1">
       <c r="L988" s="3"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="12:12" ht="15.75" customHeight="1">
       <c r="L989" s="3"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="12:12" ht="15.75" customHeight="1">
       <c r="L990" s="3"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="12:12" ht="15.75" customHeight="1">
       <c r="L991" s="3"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="12:12" ht="15.75" customHeight="1">
       <c r="L992" s="3"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="12:12" ht="15.75" customHeight="1">
       <c r="L993" s="3"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="12:12" ht="15.75" customHeight="1">
       <c r="L994" s="3"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="12:12" ht="15.75" customHeight="1">
       <c r="L995" s="3"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="12:12" ht="15.75" customHeight="1">
       <c r="L996" s="3"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="12:12" ht="15.75" customHeight="1">
       <c r="L997" s="3"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="12:12" ht="15.75" customHeight="1">
       <c r="L998" s="3"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="12:12" ht="15.75" customHeight="1">
       <c r="L999" s="3"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="12:12" ht="15.75" customHeight="1">
       <c r="L1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.71"/>
-    <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="7" width="25.71"/>
-    <col customWidth="1" min="8" max="8" width="26.71"/>
-    <col customWidth="1" min="9" max="12" width="25.71"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
@@ -17280,7 +17239,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="51">
       <c r="A2" s="2" t="s">
         <v>376</v>
       </c>
@@ -17314,7 +17273,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="85">
       <c r="A3" s="2" t="s">
         <v>389</v>
       </c>
@@ -17348,7 +17307,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>404</v>
       </c>
@@ -17386,7 +17345,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -17402,7 +17361,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>421</v>
       </c>
@@ -17448,7 +17407,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>429</v>
       </c>
@@ -17494,7 +17453,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>435</v>
       </c>
@@ -17542,7 +17501,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>438</v>
       </c>
@@ -17588,7 +17547,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
         <v>442</v>
       </c>
@@ -17634,7 +17593,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
         <v>446</v>
       </c>
@@ -17680,7 +17639,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
         <v>448</v>
       </c>
@@ -17726,7 +17685,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
         <v>452</v>
       </c>
@@ -17772,7 +17731,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
         <v>455</v>
       </c>
@@ -17818,7 +17777,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
         <v>457</v>
       </c>
@@ -17864,7 +17823,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
         <v>460</v>
       </c>
@@ -17910,7 +17869,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26">
       <c r="A17" s="7" t="s">
         <v>465</v>
       </c>
@@ -17956,7 +17915,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
         <v>479</v>
       </c>
@@ -18002,7 +17961,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26">
       <c r="A19" s="7" t="s">
         <v>489</v>
       </c>
@@ -18048,7 +18007,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26">
       <c r="A20" s="7" t="s">
         <v>508</v>
       </c>
@@ -18094,7 +18053,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>513</v>
       </c>
@@ -18140,7 +18099,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>531</v>
       </c>
@@ -18186,7 +18145,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>544</v>
       </c>
@@ -18232,7 +18191,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>546</v>
       </c>
@@ -18278,7 +18237,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>551</v>
       </c>
@@ -18324,7 +18283,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>558</v>
       </c>
@@ -18370,7 +18329,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>563</v>
       </c>
@@ -18416,7 +18375,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>568</v>
       </c>
@@ -18462,7 +18421,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>577</v>
       </c>
@@ -18508,7 +18467,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>582</v>
       </c>
@@ -18554,7 +18513,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>584</v>
       </c>
@@ -18600,7 +18559,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>587</v>
       </c>
@@ -18646,7 +18605,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>590</v>
       </c>
@@ -18692,7 +18651,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>596</v>
       </c>
@@ -18738,7 +18697,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>612</v>
       </c>
@@ -18784,7 +18743,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>627</v>
       </c>
@@ -18830,7 +18789,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>650</v>
       </c>
@@ -18876,7 +18835,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>661</v>
       </c>
@@ -18922,7 +18881,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>666</v>
       </c>
@@ -18970,15 +18929,15 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -19932,30 +19891,26 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.43"/>
-    <col customWidth="1" min="2" max="2" width="28.71"/>
-    <col customWidth="1" min="3" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19972,7 +19927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="51">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -19989,7 +19944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="68">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -20006,7 +19961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -20023,7 +19978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -20032,7 +19987,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="128">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -20043,7 +19998,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0348985E7</v>
+        <v>30348985</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
@@ -21051,29 +21006,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="31.71"/>
-    <col customWidth="1" min="4" max="6" width="8.71"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -21084,7 +21035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -21095,7 +21046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="68">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -21106,7 +21057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -21117,14 +21068,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -21135,7 +21086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -22127,49 +22078,45 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.71"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="9" width="25.71"/>
-    <col customWidth="1" min="10" max="10" width="20.0"/>
-    <col customWidth="1" min="11" max="11" width="16.71"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="25.71"/>
-    <col customWidth="1" min="14" max="14" width="18.86"/>
-    <col customWidth="1" min="15" max="15" width="16.29"/>
-    <col customWidth="1" min="16" max="16" width="25.71"/>
-    <col customWidth="1" min="17" max="17" width="31.71"/>
-    <col customWidth="1" min="18" max="19" width="25.71"/>
-    <col customWidth="1" min="20" max="20" width="12.14"/>
-    <col customWidth="1" min="21" max="21" width="8.71"/>
-    <col customWidth="1" min="22" max="22" width="28.71"/>
-    <col customWidth="1" min="23" max="23" width="16.14"/>
-    <col customWidth="1" min="24" max="24" width="16.86"/>
-    <col customWidth="1" min="25" max="28" width="31.86"/>
-    <col customWidth="1" min="29" max="29" width="25.71"/>
-    <col customWidth="1" min="30" max="30" width="28.71"/>
-    <col customWidth="1" min="31" max="33" width="25.71"/>
-    <col customWidth="1" min="34" max="34" width="32.71"/>
-    <col customWidth="1" min="35" max="40" width="25.71"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="3" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" customWidth="1"/>
+    <col min="18" max="19" width="25.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="28.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" customWidth="1"/>
+    <col min="25" max="28" width="31.83203125" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" customWidth="1"/>
+    <col min="30" max="30" width="28.6640625" customWidth="1"/>
+    <col min="31" max="33" width="25.6640625" customWidth="1"/>
+    <col min="34" max="34" width="32.6640625" customWidth="1"/>
+    <col min="35" max="40" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:40" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -22285,7 +22232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" ht="96.0" customHeight="1">
+    <row r="2" spans="1:40" ht="96" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -22399,7 +22346,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" ht="88.5" customHeight="1">
+    <row r="3" spans="1:40" ht="88.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -22507,7 +22454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:40">
       <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
@@ -22627,7 +22574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:40" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -22671,7 +22618,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:40" ht="16">
       <c r="A6" s="11" t="s">
         <v>179</v>
       </c>
@@ -22680,7 +22627,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="I6" s="13">
         <v>30.5</v>
@@ -22702,7 +22649,7 @@
         <v>184</v>
       </c>
       <c r="R6" s="12">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>185</v>
@@ -22750,7 +22697,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:40" ht="16">
       <c r="A7" s="11" t="s">
         <v>197</v>
       </c>
@@ -22759,7 +22706,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="I7" s="13">
         <v>31.7</v>
@@ -22789,7 +22736,7 @@
         <v>184</v>
       </c>
       <c r="R7" s="12">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>185</v>
@@ -22837,7 +22784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:40" ht="16">
       <c r="A8" s="11" t="s">
         <v>205</v>
       </c>
@@ -22846,7 +22793,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="I8" s="13">
         <v>37.1</v>
@@ -22876,7 +22823,7 @@
         <v>184</v>
       </c>
       <c r="R8" s="12">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>185</v>
@@ -22924,7 +22871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:40" ht="16">
       <c r="A9" s="11" t="s">
         <v>212</v>
       </c>
@@ -22933,7 +22880,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="I9" s="13">
         <v>28.1</v>
@@ -22963,7 +22910,7 @@
         <v>184</v>
       </c>
       <c r="R9" s="12">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>185</v>
@@ -23011,7 +22958,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:40" ht="16">
       <c r="A10" s="11" t="s">
         <v>219</v>
       </c>
@@ -23020,7 +22967,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="I10" s="13">
         <v>28.4</v>
@@ -23050,7 +22997,7 @@
         <v>184</v>
       </c>
       <c r="R10" s="12">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>185</v>
@@ -24079,33 +24026,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="34.29"/>
-    <col customWidth="1" min="4" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="7" width="28.71"/>
-    <col customWidth="1" min="8" max="8" width="13.71"/>
-    <col customWidth="1" min="9" max="9" width="15.71"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
@@ -24134,7 +24077,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" ht="132.75" customHeight="1">
+    <row r="2" spans="1:26" ht="132.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>233</v>
       </c>
@@ -24163,7 +24106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" ht="54.0" customHeight="1">
+    <row r="3" spans="1:26" ht="54" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -24188,7 +24131,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="3" t="s">
         <v>246</v>
       </c>
@@ -24217,7 +24160,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -24230,7 +24173,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="64">
       <c r="A6" s="5" t="s">
         <v>255</v>
       </c>
@@ -25253,36 +25196,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="25.71"/>
-    <col customWidth="1" min="11" max="11" width="18.43"/>
-    <col customWidth="1" min="12" max="12" width="13.14"/>
-    <col customWidth="1" min="13" max="13" width="23.43"/>
-    <col customWidth="1" min="14" max="14" width="16.14"/>
-    <col customWidth="1" min="15" max="15" width="8.71"/>
-    <col customWidth="1" min="16" max="16" width="25.71"/>
-    <col customWidth="1" min="17" max="17" width="17.29"/>
-    <col customWidth="1" min="18" max="18" width="15.43"/>
-    <col customWidth="1" min="19" max="20" width="25.71"/>
+    <col min="1" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="19" max="20" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
@@ -25344,7 +25283,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" ht="111.0" customHeight="1">
+    <row r="2" spans="1:26" ht="111" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -25406,7 +25345,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" ht="97.5" customHeight="1">
+    <row r="3" spans="1:26" ht="97.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -25460,7 +25399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>282</v>
       </c>
@@ -25531,7 +25470,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -25558,7 +25497,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="16">
       <c r="A6" s="11" t="s">
         <v>303</v>
       </c>
@@ -25572,7 +25511,7 @@
         <v>304</v>
       </c>
       <c r="E6" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
@@ -25622,7 +25561,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="16">
       <c r="A7" s="11" t="s">
         <v>310</v>
       </c>
@@ -25636,7 +25575,7 @@
         <v>304</v>
       </c>
       <c r="E7" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="3"/>
@@ -25686,7 +25625,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="16">
       <c r="A8" s="11" t="s">
         <v>311</v>
       </c>
@@ -25700,7 +25639,7 @@
         <v>304</v>
       </c>
       <c r="E8" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="3"/>
@@ -25750,7 +25689,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="16">
       <c r="A9" s="11" t="s">
         <v>312</v>
       </c>
@@ -25764,7 +25703,7 @@
         <v>304</v>
       </c>
       <c r="E9" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
@@ -25814,7 +25753,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="11" t="s">
         <v>313</v>
       </c>
@@ -25828,7 +25767,7 @@
         <v>304</v>
       </c>
       <c r="E10" s="12">
-        <v>9606.0</v>
+        <v>9606</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
@@ -26859,32 +26798,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="5" width="32.0"/>
-    <col customWidth="1" min="6" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="7" width="30.71"/>
-    <col customWidth="1" min="8" max="8" width="14.29"/>
-    <col customWidth="1" min="9" max="9" width="17.29"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>314</v>
       </c>
@@ -26913,7 +26848,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" ht="108.75" customHeight="1">
+    <row r="2" spans="1:26" ht="108.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>233</v>
       </c>
@@ -26942,7 +26877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="68">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -26967,7 +26902,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="3" t="s">
         <v>349</v>
       </c>
@@ -26996,7 +26931,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -27009,7 +26944,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="48">
       <c r="A6" s="5" t="s">
         <v>388</v>
       </c>
@@ -28032,31 +27967,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="25.71"/>
-    <col customWidth="1" min="7" max="7" width="28.71"/>
-    <col customWidth="1" min="8" max="8" width="19.86"/>
-    <col customWidth="1" min="9" max="9" width="15.86"/>
-    <col customWidth="1" min="10" max="12" width="25.71"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>464</v>
       </c>
@@ -28094,7 +28025,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" ht="138.0" customHeight="1">
+    <row r="2" spans="1:26" ht="138" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>233</v>
       </c>
@@ -28132,7 +28063,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" ht="102.75" customHeight="1">
+    <row r="3" spans="1:26" ht="102.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>240</v>
       </c>
@@ -28166,7 +28097,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>494</v>
       </c>
@@ -28204,7 +28135,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" ht="30.0" customHeight="1">
+    <row r="5" spans="1:26" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -28220,7 +28151,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="32">
       <c r="A6" s="5" t="s">
         <v>517</v>
       </c>
@@ -28246,7 +28177,7 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="6"/>
@@ -29245,9 +29176,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>